--- a/src/Density/TongDanSo.xlsx
+++ b/src/Density/TongDanSo.xlsx
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +679,34 @@
     <col min="27" max="27" width="11.42578125" customWidth="1"/>
     <col min="28" max="28" width="11.85546875" customWidth="1"/>
     <col min="29" max="29" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" customWidth="1"/>
+    <col min="34" max="34" width="12.85546875" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" customWidth="1"/>
+    <col min="36" max="36" width="10.85546875" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" customWidth="1"/>
+    <col min="40" max="40" width="10.42578125" customWidth="1"/>
+    <col min="42" max="42" width="12" customWidth="1"/>
+    <col min="43" max="43" width="11" customWidth="1"/>
+    <col min="45" max="45" width="12.28515625" customWidth="1"/>
+    <col min="46" max="46" width="13" customWidth="1"/>
+    <col min="47" max="47" width="11.7109375" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" customWidth="1"/>
+    <col min="51" max="51" width="10.42578125" customWidth="1"/>
+    <col min="52" max="52" width="11.42578125" customWidth="1"/>
+    <col min="53" max="53" width="11.28515625" customWidth="1"/>
+    <col min="54" max="54" width="10.85546875" customWidth="1"/>
+    <col min="55" max="55" width="12.140625" customWidth="1"/>
+    <col min="56" max="56" width="10.42578125" customWidth="1"/>
+    <col min="57" max="57" width="11.42578125" customWidth="1"/>
+    <col min="58" max="58" width="14" customWidth="1"/>
+    <col min="59" max="59" width="11" customWidth="1"/>
+    <col min="60" max="60" width="10.7109375" customWidth="1"/>
+    <col min="61" max="61" width="9.42578125" customWidth="1"/>
+    <col min="62" max="62" width="10.42578125" customWidth="1"/>
+    <col min="64" max="64" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">

--- a/src/Density/TongDanSo.xlsx
+++ b/src/Density/TongDanSo.xlsx
@@ -654,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>

--- a/src/Density/TongDanSo.xlsx
+++ b/src/Density/TongDanSo.xlsx
@@ -321,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -352,6 +352,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -636,9 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -729,10 +730,10 @@
       <c r="R1"/>
     </row>
     <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5">
@@ -750,7 +751,7 @@
       <c r="G2" s="5">
         <v>8246540</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>8330834</v>
       </c>
       <c r="I2" s="7"/>
@@ -765,10 +766,10 @@
       <c r="R2"/>
     </row>
     <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5">
@@ -786,7 +787,7 @@
       <c r="G3" s="5">
         <v>870240</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>887086</v>
       </c>
       <c r="I3" s="7"/>
@@ -801,10 +802,10 @@
       <c r="R3"/>
     </row>
     <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5">
@@ -822,7 +823,7 @@
       <c r="G4" s="5">
         <v>533085</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>542217</v>
       </c>
       <c r="I4" s="7"/>
@@ -837,10 +838,10 @@
       <c r="R4"/>
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5">
@@ -858,7 +859,7 @@
       <c r="G5" s="5">
         <v>316463</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>323712</v>
       </c>
       <c r="I5" s="7"/>
@@ -873,10 +874,10 @@
       <c r="R5"/>
     </row>
     <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5">
@@ -894,7 +895,7 @@
       <c r="G6" s="5">
         <v>792900</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>801668</v>
       </c>
       <c r="I6" s="7"/>
@@ -909,10 +910,10 @@
       <c r="R6"/>
     </row>
     <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="12">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5">
@@ -930,7 +931,7 @@
       <c r="G7" s="5">
         <v>746355</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>761890</v>
       </c>
       <c r="I7" s="7"/>
@@ -945,10 +946,10 @@
       <c r="R7"/>
     </row>
     <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="12">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5">
@@ -966,7 +967,7 @@
       <c r="G8" s="5">
         <v>613480</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>625089</v>
       </c>
       <c r="P8"/>
@@ -974,10 +975,10 @@
       <c r="R8"/>
     </row>
     <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="12">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5">
@@ -995,7 +996,7 @@
       <c r="G9" s="5">
         <v>469811</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>478430</v>
       </c>
       <c r="P9"/>
@@ -1003,10 +1004,10 @@
       <c r="R9"/>
     </row>
     <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="12">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5">
@@ -1024,7 +1025,7 @@
       <c r="G10" s="5">
         <v>1270556</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>1287718</v>
       </c>
       <c r="P10"/>
@@ -1032,10 +1033,10 @@
       <c r="R10"/>
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="12">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5">
@@ -1053,7 +1054,7 @@
       <c r="G11" s="5">
         <v>831586</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>842671</v>
       </c>
       <c r="P11"/>
@@ -1061,10 +1062,10 @@
       <c r="R11"/>
     </row>
     <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="12">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5">
@@ -1082,7 +1083,7 @@
       <c r="G12" s="5">
         <v>861216</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>871724</v>
       </c>
       <c r="P12"/>
@@ -1090,10 +1091,10 @@
       <c r="R12"/>
     </row>
     <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="12">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5">
@@ -1111,7 +1112,7 @@
       <c r="G13" s="5">
         <v>1307871</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>1323150</v>
       </c>
       <c r="P13"/>
@@ -1119,10 +1120,10 @@
       <c r="R13"/>
     </row>
     <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="12">
         <v>20</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="5">
@@ -1140,7 +1141,7 @@
       <c r="G14" s="5">
         <v>788706</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>796939</v>
       </c>
       <c r="P14"/>
@@ -1148,10 +1149,10 @@
       <c r="R14"/>
     </row>
     <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="12">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="5">
@@ -1169,7 +1170,7 @@
       <c r="G15" s="5">
         <v>1337605</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>1350851</v>
       </c>
       <c r="P15"/>
@@ -1177,10 +1178,10 @@
       <c r="R15"/>
     </row>
     <row r="16" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="12">
         <v>24</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="5">
@@ -1198,7 +1199,7 @@
       <c r="G16" s="5">
         <v>1841624</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>1875238</v>
       </c>
       <c r="P16"/>
@@ -1206,10 +1207,10 @@
       <c r="R16"/>
     </row>
     <row r="17" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="12">
         <v>25</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="5">
@@ -1227,7 +1228,7 @@
       <c r="G17" s="5">
         <v>1481884</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>1507539</v>
       </c>
       <c r="P17"/>
@@ -1235,10 +1236,10 @@
       <c r="R17"/>
     </row>
     <row r="18" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="12">
         <v>26</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="5">
@@ -1256,7 +1257,7 @@
       <c r="G18" s="5">
         <v>1171232</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>1191782</v>
       </c>
       <c r="P18"/>
@@ -1264,10 +1265,10 @@
       <c r="R18"/>
     </row>
     <row r="19" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="12">
         <v>27</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="5">
@@ -1285,7 +1286,7 @@
       <c r="G19" s="5">
         <v>1419126</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>1462945</v>
       </c>
       <c r="P19"/>
@@ -1293,10 +1294,10 @@
       <c r="R19"/>
     </row>
     <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="12">
         <v>30</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="5">
@@ -1314,7 +1315,7 @@
       <c r="G20" s="5">
         <v>1916774</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>1936775</v>
       </c>
       <c r="P20"/>
@@ -1322,10 +1323,10 @@
       <c r="R20"/>
     </row>
     <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="12">
         <v>31</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="5">
@@ -1343,7 +1344,7 @@
       <c r="G21" s="5">
         <v>2053493</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>2072388</v>
       </c>
       <c r="P21"/>
@@ -1351,10 +1352,10 @@
       <c r="R21"/>
     </row>
     <row r="22" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="12">
         <v>33</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="5">
@@ -1372,7 +1373,7 @@
       <c r="G22" s="5">
         <v>1269090</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>1284552</v>
       </c>
       <c r="P22"/>
@@ -1380,10 +1381,10 @@
       <c r="R22"/>
     </row>
     <row r="23" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="12">
         <v>34</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="5">
@@ -1401,7 +1402,7 @@
       <c r="G23" s="5">
         <v>1870240</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>1875663</v>
       </c>
       <c r="P23"/>
@@ -1409,10 +1410,10 @@
       <c r="R23"/>
     </row>
     <row r="24" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="12">
         <v>35</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="5">
@@ -1430,7 +1431,7 @@
       <c r="G24" s="5">
         <v>861832</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>875216</v>
       </c>
       <c r="P24"/>
@@ -1438,10 +1439,10 @@
       <c r="R24"/>
     </row>
     <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="12">
         <v>36</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="5">
@@ -1459,7 +1460,7 @@
       <c r="G25" s="5">
         <v>1780333</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>1836268</v>
       </c>
       <c r="P25"/>
@@ -1467,10 +1468,10 @@
       <c r="R25"/>
     </row>
     <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="12">
         <v>37</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="5">
@@ -1488,7 +1489,7 @@
       <c r="G26" s="5">
         <v>993920</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>1007570</v>
       </c>
       <c r="P26"/>
@@ -1496,10 +1497,10 @@
       <c r="R26"/>
     </row>
     <row r="27" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="12">
         <v>38</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="5">
@@ -1517,7 +1518,7 @@
       <c r="G27" s="5">
         <v>3664944</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>3716428</v>
       </c>
       <c r="P27"/>
@@ -1525,10 +1526,10 @@
       <c r="R27"/>
     </row>
     <row r="28" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="12">
         <v>40</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="5">
@@ -1546,7 +1547,7 @@
       <c r="G28" s="5">
         <v>3365198</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>3409812</v>
       </c>
       <c r="P28"/>
@@ -1554,10 +1555,10 @@
       <c r="R28"/>
     </row>
     <row r="29" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="12">
         <v>42</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="5">
@@ -1575,7 +1576,7 @@
       <c r="G29" s="5">
         <v>1296622</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>1314056</v>
       </c>
       <c r="P29"/>
@@ -1583,10 +1584,10 @@
       <c r="R29"/>
     </row>
     <row r="30" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="12">
         <v>44</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="5">
@@ -1604,15 +1605,15 @@
       <c r="G30" s="5">
         <v>901984</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>910655</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="12">
         <v>45</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="5">
@@ -1630,15 +1631,15 @@
       <c r="G31" s="5">
         <v>637386</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>647790</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="12">
         <v>46</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="5">
@@ -1656,15 +1657,15 @@
       <c r="G32" s="5">
         <v>1133592</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>1153795</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="12">
         <v>48</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="5">
@@ -1682,15 +1683,15 @@
       <c r="G33" s="5">
         <v>1169480</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>1195488</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="12">
         <v>49</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="5">
@@ -1708,15 +1709,15 @@
       <c r="G34" s="5">
         <v>1505042</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <v>1518477</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="12">
         <v>51</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="5">
@@ -1734,15 +1735,15 @@
       <c r="G35" s="5">
         <v>1233396</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <v>1244132</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="12">
         <v>52</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="5">
@@ -1760,15 +1761,15 @@
       <c r="G36" s="5">
         <v>1487903</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>1508322</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="12">
         <v>54</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="5">
@@ -1786,15 +1787,15 @@
       <c r="G37" s="5">
         <v>874295</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>875535</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="12">
         <v>56</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="5">
@@ -1812,7 +1813,7 @@
       <c r="G38" s="5">
         <v>1240436</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>1248062</v>
       </c>
       <c r="P38"/>
@@ -1820,10 +1821,10 @@
       <c r="R38"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="12">
         <v>58</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="5">
@@ -1841,7 +1842,7 @@
       <c r="G39" s="5">
         <v>593644</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>596049</v>
       </c>
       <c r="P39"/>
@@ -1849,10 +1850,10 @@
       <c r="R39"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="12">
         <v>60</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C40" s="5">
@@ -1870,7 +1871,7 @@
       <c r="G40" s="5">
         <v>1239256</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>1246306</v>
       </c>
       <c r="P40"/>
@@ -1878,10 +1879,10 @@
       <c r="R40"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="12">
         <v>62</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C41" s="5">
@@ -1899,7 +1900,7 @@
       <c r="G41" s="5">
         <v>555645</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>568780</v>
       </c>
       <c r="P41"/>
@@ -1907,10 +1908,10 @@
       <c r="R41"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="12">
         <v>64</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="5">
@@ -1928,7 +1929,7 @@
       <c r="G42" s="5">
         <v>1541829</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>1569721</v>
       </c>
       <c r="P42"/>
@@ -1936,10 +1937,10 @@
       <c r="R42"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="12">
         <v>66</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="5">
@@ -1957,7 +1958,7 @@
       <c r="G43" s="5">
         <v>1886937</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <v>1908999</v>
       </c>
       <c r="P43"/>
@@ -1965,10 +1966,10 @@
       <c r="R43"/>
     </row>
     <row r="44" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="12">
         <v>67</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="5">
@@ -1986,7 +1987,7 @@
       <c r="G44" s="5">
         <v>637907</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <v>664416</v>
       </c>
       <c r="P44"/>
@@ -1994,10 +1995,10 @@
       <c r="R44"/>
     </row>
     <row r="45" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="12">
         <v>68</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="5">
@@ -2015,7 +2016,7 @@
       <c r="G45" s="5">
         <v>1309792</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <v>1321839</v>
       </c>
       <c r="P45"/>
@@ -2023,10 +2024,10 @@
       <c r="R45"/>
     </row>
     <row r="46" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="12">
         <v>70</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="5">
@@ -2044,7 +2045,7 @@
       <c r="G46" s="5">
         <v>1011076</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <v>1024285</v>
       </c>
       <c r="P46"/>
@@ -2052,10 +2053,10 @@
       <c r="R46"/>
     </row>
     <row r="47" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="12">
         <v>72</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="5">
@@ -2073,7 +2074,7 @@
       <c r="G47" s="5">
         <v>1178329</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <v>1181907</v>
       </c>
       <c r="P47"/>
@@ -2081,10 +2082,10 @@
       <c r="R47"/>
     </row>
     <row r="48" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="12">
         <v>74</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="5">
@@ -2102,7 +2103,7 @@
       <c r="G48" s="5">
         <v>2580550</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>2596785</v>
       </c>
       <c r="P48"/>
@@ -2110,10 +2111,10 @@
       <c r="R48"/>
     </row>
     <row r="49" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="12">
         <v>75</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="5">
@@ -2131,7 +2132,7 @@
       <c r="G49" s="5">
         <v>3177401</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>3169103</v>
       </c>
       <c r="P49"/>
@@ -2139,10 +2140,10 @@
       <c r="R49"/>
     </row>
     <row r="50" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="12">
         <v>77</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="5">
@@ -2160,7 +2161,7 @@
       <c r="G50" s="5">
         <v>1167937</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <v>1176079</v>
       </c>
       <c r="P50"/>
@@ -2168,10 +2169,10 @@
       <c r="R50"/>
     </row>
     <row r="51" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="12">
         <v>79</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="5">
@@ -2189,7 +2190,7 @@
       <c r="G51" s="5">
         <v>9227598</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>9166840</v>
       </c>
       <c r="P51"/>
@@ -2197,10 +2198,10 @@
       <c r="R51"/>
     </row>
     <row r="52" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="12">
         <v>80</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="5">
@@ -2218,7 +2219,7 @@
       <c r="G52" s="5">
         <v>1713658</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>1725752</v>
       </c>
       <c r="P52"/>
@@ -2226,10 +2227,10 @@
       <c r="R52"/>
     </row>
     <row r="53" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="12">
         <v>82</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="5">
@@ -2247,7 +2248,7 @@
       <c r="G53" s="5">
         <v>1772544</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <v>1779416</v>
       </c>
       <c r="P53"/>
@@ -2255,10 +2256,10 @@
       <c r="R53"/>
     </row>
     <row r="54" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="12">
         <v>83</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="5">
@@ -2276,7 +2277,7 @@
       <c r="G54" s="5">
         <v>1292397</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="5">
         <v>1295705</v>
       </c>
       <c r="P54"/>
@@ -2284,10 +2285,10 @@
       <c r="R54"/>
     </row>
     <row r="55" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="12">
         <v>84</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C55" s="5">
@@ -2305,7 +2306,7 @@
       <c r="G55" s="5">
         <v>1009940</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <v>1018635</v>
       </c>
       <c r="P55"/>
@@ -2313,10 +2314,10 @@
       <c r="R55"/>
     </row>
     <row r="56" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="12">
         <v>86</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="5">
@@ -2334,7 +2335,7 @@
       <c r="G56" s="5">
         <v>1022971</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="5">
         <v>1029015</v>
       </c>
       <c r="P56"/>
@@ -2342,10 +2343,10 @@
       <c r="R56"/>
     </row>
     <row r="57" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="12">
         <v>87</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="5">
@@ -2363,7 +2364,7 @@
       <c r="G57" s="5">
         <v>1600014</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>1601306</v>
       </c>
       <c r="P57" s="7"/>
@@ -2376,10 +2377,10 @@
       <c r="W57" s="8"/>
     </row>
     <row r="58" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="12">
         <v>89</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="5">
@@ -2397,7 +2398,7 @@
       <c r="G58" s="5">
         <v>1904532</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="5">
         <v>1909506</v>
       </c>
       <c r="P58" s="7"/>
@@ -2410,10 +2411,10 @@
       <c r="W58" s="8"/>
     </row>
     <row r="59" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="12">
         <v>91</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C59" s="5">
@@ -2431,7 +2432,7 @@
       <c r="G59" s="5">
         <v>1728869</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="5">
         <v>1752321</v>
       </c>
       <c r="P59" s="7"/>
@@ -2444,10 +2445,10 @@
       <c r="W59" s="8"/>
     </row>
     <row r="60" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="12">
         <v>92</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C60" s="5">
@@ -2465,7 +2466,7 @@
       <c r="G60" s="5">
         <v>1240731</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="5">
         <v>1246993</v>
       </c>
       <c r="P60" s="7"/>
@@ -2478,10 +2479,10 @@
       <c r="W60" s="8"/>
     </row>
     <row r="61" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="12">
         <v>93</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C61" s="5">
@@ -2499,7 +2500,7 @@
       <c r="G61" s="5">
         <v>729780</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="5">
         <v>729888</v>
       </c>
       <c r="P61" s="7"/>
@@ -2512,10 +2513,10 @@
       <c r="W61" s="8"/>
     </row>
     <row r="62" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="12">
         <v>94</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C62" s="5">
@@ -2533,7 +2534,7 @@
       <c r="G62" s="5">
         <v>1195741</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="5">
         <v>1206819</v>
       </c>
       <c r="P62" s="8"/>
@@ -2546,10 +2547,10 @@
       <c r="W62" s="8"/>
     </row>
     <row r="63" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="12">
         <v>95</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C63" s="5">
@@ -2567,7 +2568,7 @@
       <c r="G63" s="5">
         <v>913481</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="5">
         <v>918510</v>
       </c>
       <c r="P63" s="8"/>
@@ -2580,10 +2581,10 @@
       <c r="W63" s="8"/>
     </row>
     <row r="64" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="12">
         <v>96</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="5">
@@ -2601,7 +2602,7 @@
       <c r="G64" s="5">
         <v>1193894</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="5">
         <v>1208752</v>
       </c>
       <c r="P64" s="8"/>

--- a/src/Density/TongDanSo.xlsx
+++ b/src/Density/TongDanSo.xlsx
@@ -29,211 +29,211 @@
     <t>01</t>
   </si>
   <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
-    <t>Hà Giang</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
-    <t>Cao Bằng</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
-    <t>Bắc Kạn</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
-    <t>Tuyên Quang</t>
-  </si>
-  <si>
-    <t>Lào Cai</t>
-  </si>
-  <si>
-    <t>Điện Biên</t>
-  </si>
-  <si>
-    <t>Lai Châu</t>
-  </si>
-  <si>
-    <t>Sơn La</t>
-  </si>
-  <si>
-    <t>Yên Bái</t>
-  </si>
-  <si>
-    <t>Hoà Bình</t>
-  </si>
-  <si>
-    <t>Thái Nguyên</t>
-  </si>
-  <si>
-    <t>Lạng Sơn</t>
-  </si>
-  <si>
-    <t>Quảng Ninh</t>
-  </si>
-  <si>
-    <t>Bắc Giang</t>
-  </si>
-  <si>
-    <t>Phú Thọ</t>
-  </si>
-  <si>
-    <t>Vĩnh Phúc</t>
-  </si>
-  <si>
-    <t>Bắc Ninh</t>
-  </si>
-  <si>
-    <t>Hải Dương</t>
-  </si>
-  <si>
-    <t>Hải Phòng</t>
-  </si>
-  <si>
-    <t>Hưng Yên</t>
-  </si>
-  <si>
-    <t>Thái Bình</t>
-  </si>
-  <si>
-    <t>Hà Nam</t>
-  </si>
-  <si>
-    <t>Nam Định</t>
-  </si>
-  <si>
-    <t>Ninh Bình</t>
-  </si>
-  <si>
-    <t>Thanh Hoá</t>
-  </si>
-  <si>
-    <t>Nghệ An</t>
-  </si>
-  <si>
-    <t>Hà Tĩnh</t>
-  </si>
-  <si>
-    <t>Quảng Bình</t>
-  </si>
-  <si>
-    <t>Quảng Trị</t>
-  </si>
-  <si>
-    <t>Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t>Đà Nẵng</t>
-  </si>
-  <si>
-    <t>Quảng Nam</t>
-  </si>
-  <si>
-    <t>Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>Bình Định</t>
-  </si>
-  <si>
-    <t>Phú Yên</t>
-  </si>
-  <si>
-    <t>Khánh Hoà</t>
-  </si>
-  <si>
-    <t>Ninh Thuận</t>
-  </si>
-  <si>
-    <t>Bình Thuận</t>
-  </si>
-  <si>
     <t>Kon Tum</t>
   </si>
   <si>
     <t>Gia Lai</t>
   </si>
   <si>
-    <t>Đắk Lắk</t>
-  </si>
-  <si>
-    <t>Đắk Nông</t>
-  </si>
-  <si>
-    <t>Lâm Đồng</t>
-  </si>
-  <si>
-    <t>Bình Phước</t>
-  </si>
-  <si>
-    <t>Tây Ninh</t>
-  </si>
-  <si>
-    <t>Bình Dương</t>
-  </si>
-  <si>
-    <t>Đồng Nai</t>
-  </si>
-  <si>
-    <t>Bà Rịa-Vũng Tàu</t>
-  </si>
-  <si>
-    <t>TP Hồ Chí Minh</t>
-  </si>
-  <si>
     <t>Long An</t>
   </si>
   <si>
-    <t>Tiền Giang</t>
-  </si>
-  <si>
-    <t>Bến Tre</t>
-  </si>
-  <si>
-    <t>Trà Vinh</t>
-  </si>
-  <si>
-    <t>Vĩnh Long</t>
-  </si>
-  <si>
-    <t>Đồng Tháp</t>
-  </si>
-  <si>
     <t>An Giang</t>
   </si>
   <si>
-    <t>Kiên Giang</t>
-  </si>
-  <si>
-    <t>Cần Thơ</t>
-  </si>
-  <si>
-    <t>Hậu Giang</t>
-  </si>
-  <si>
-    <t>Sóc Trăng</t>
-  </si>
-  <si>
-    <t>Bạc Liêu</t>
-  </si>
-  <si>
-    <t>Cà Mau</t>
-  </si>
-  <si>
     <t>CONVINCE</t>
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>Ha Giang</t>
+  </si>
+  <si>
+    <t>Cao Bang</t>
+  </si>
+  <si>
+    <t>Bac Kan</t>
+  </si>
+  <si>
+    <t>Tuyon Quang</t>
+  </si>
+  <si>
+    <t>Lao Cai</t>
+  </si>
+  <si>
+    <t>Dien Bion</t>
+  </si>
+  <si>
+    <t>Lai Chou</t>
+  </si>
+  <si>
+    <t>Son La</t>
+  </si>
+  <si>
+    <t>Yon Boi</t>
+  </si>
+  <si>
+    <t>Hoa Bonh</t>
+  </si>
+  <si>
+    <t>Thoi Nguyon</t>
+  </si>
+  <si>
+    <t>Lang Son</t>
+  </si>
+  <si>
+    <t>Quang Ninh</t>
+  </si>
+  <si>
+    <t>Bac Giang</t>
+  </si>
+  <si>
+    <t>Phy Tho</t>
+  </si>
+  <si>
+    <t>Vinh Phyc</t>
+  </si>
+  <si>
+    <t>Bac Ninh</t>
+  </si>
+  <si>
+    <t>Hai Duong</t>
+  </si>
+  <si>
+    <t>Hai Phung</t>
+  </si>
+  <si>
+    <t>Hung Yon</t>
+  </si>
+  <si>
+    <t>Thoi Bonh</t>
+  </si>
+  <si>
+    <t>Ha Nam</t>
+  </si>
+  <si>
+    <t>Nam Dinh</t>
+  </si>
+  <si>
+    <t>Ninh Bonh</t>
+  </si>
+  <si>
+    <t>Thanh Hoo</t>
+  </si>
+  <si>
+    <t>Nghe An</t>
+  </si>
+  <si>
+    <t>Ha Tinh</t>
+  </si>
+  <si>
+    <t>Quang Bonh</t>
+  </si>
+  <si>
+    <t>Quang Tri</t>
+  </si>
+  <si>
+    <t>Thua Thion Hue</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>Quang Nam</t>
+  </si>
+  <si>
+    <t>Quang Ngoi</t>
+  </si>
+  <si>
+    <t>Bonh Dinh</t>
+  </si>
+  <si>
+    <t>Phy Yon</t>
+  </si>
+  <si>
+    <t>Khonh Hoa</t>
+  </si>
+  <si>
+    <t>Ninh Thuan</t>
+  </si>
+  <si>
+    <t>Bonh Thuan</t>
+  </si>
+  <si>
+    <t>Dak Lak</t>
+  </si>
+  <si>
+    <t>Dak Nung</t>
+  </si>
+  <si>
+    <t>Lom Dong</t>
+  </si>
+  <si>
+    <t>Bonh Phuoc</t>
+  </si>
+  <si>
+    <t>Toy Ninh</t>
+  </si>
+  <si>
+    <t>Bonh Duong</t>
+  </si>
+  <si>
+    <t>Dong Nai</t>
+  </si>
+  <si>
+    <t>Ba Ria-Vung Tau</t>
+  </si>
+  <si>
+    <t>TP Ho Cho Minh</t>
+  </si>
+  <si>
+    <t>Tien Giang</t>
+  </si>
+  <si>
+    <t>Ben Tre</t>
+  </si>
+  <si>
+    <t>Tra Vinh</t>
+  </si>
+  <si>
+    <t>Vinh Long</t>
+  </si>
+  <si>
+    <t>Dong Thop</t>
+  </si>
+  <si>
+    <t>Kion Giang</t>
+  </si>
+  <si>
+    <t>Can Tho</t>
+  </si>
+  <si>
+    <t>Hau Giang</t>
+  </si>
+  <si>
+    <t>Suc Trang</t>
+  </si>
+  <si>
+    <t>Bac Liou</t>
+  </si>
+  <si>
+    <t>Ca Mau</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -355,6 +355,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -639,7 +645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -695,10 +703,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2">
         <v>2016</v>
@@ -718,7 +726,6 @@
       <c r="H1" s="9">
         <v>2021</v>
       </c>
-      <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -733,8 +740,8 @@
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
+      <c r="B2" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="5">
         <v>7590766</v>
@@ -754,7 +761,6 @@
       <c r="H2" s="5">
         <v>8330834</v>
       </c>
-      <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -767,10 +773,10 @@
     </row>
     <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="5">
         <v>820427</v>
@@ -790,7 +796,6 @@
       <c r="H3" s="5">
         <v>887086</v>
       </c>
-      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -803,10 +808,10 @@
     </row>
     <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>524235</v>
@@ -826,7 +831,6 @@
       <c r="H4" s="5">
         <v>542217</v>
       </c>
-      <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -839,10 +843,10 @@
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>307675</v>
@@ -862,7 +866,6 @@
       <c r="H5" s="5">
         <v>323712</v>
       </c>
-      <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -875,10 +878,10 @@
     </row>
     <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="5">
         <v>763377</v>
@@ -898,7 +901,6 @@
       <c r="H6" s="5">
         <v>801668</v>
       </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -913,8 +915,8 @@
       <c r="A7" s="12">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>10</v>
+      <c r="B7" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="5">
         <v>696453</v>
@@ -934,7 +936,6 @@
       <c r="H7" s="5">
         <v>761890</v>
       </c>
-      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -949,8 +950,8 @@
       <c r="A8" s="12">
         <v>11</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
+      <c r="B8" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="5">
         <v>568267</v>
@@ -978,8 +979,8 @@
       <c r="A9" s="12">
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>12</v>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <v>436321</v>
@@ -1007,8 +1008,8 @@
       <c r="A10" s="12">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
+      <c r="B10" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="5">
         <v>1194937</v>
@@ -1036,8 +1037,8 @@
       <c r="A11" s="12">
         <v>15</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>14</v>
+      <c r="B11" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="5">
         <v>800321</v>
@@ -1065,8 +1066,8 @@
       <c r="A12" s="12">
         <v>17</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>15</v>
+      <c r="B12" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="5">
         <v>836963</v>
@@ -1094,8 +1095,8 @@
       <c r="A13" s="12">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>16</v>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="5">
         <v>1242824</v>
@@ -1123,8 +1124,8 @@
       <c r="A14" s="12">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
+      <c r="B14" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="5">
         <v>763396</v>
@@ -1152,8 +1153,8 @@
       <c r="A15" s="12">
         <v>22</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>18</v>
+      <c r="B15" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="5">
         <v>1261240</v>
@@ -1181,8 +1182,8 @@
       <c r="A16" s="12">
         <v>24</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>19</v>
+      <c r="B16" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="5">
         <v>1696903</v>
@@ -1210,8 +1211,8 @@
       <c r="A17" s="12">
         <v>25</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
+      <c r="B17" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="5">
         <v>1409008</v>
@@ -1239,8 +1240,8 @@
       <c r="A18" s="12">
         <v>26</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>21</v>
+      <c r="B18" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="5">
         <v>1106141</v>
@@ -1268,8 +1269,8 @@
       <c r="A19" s="12">
         <v>27</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>22</v>
+      <c r="B19" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="5">
         <v>1257844</v>
@@ -1297,8 +1298,8 @@
       <c r="A20" s="12">
         <v>30</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>23</v>
+      <c r="B20" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="5">
         <v>1832812</v>
@@ -1326,8 +1327,8 @@
       <c r="A21" s="12">
         <v>31</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>24</v>
+      <c r="B21" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C21" s="5">
         <v>1985314</v>
@@ -1355,8 +1356,8 @@
       <c r="A22" s="12">
         <v>33</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>25</v>
+      <c r="B22" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="5">
         <v>1215503</v>
@@ -1384,8 +1385,8 @@
       <c r="A23" s="12">
         <v>34</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>26</v>
+      <c r="B23" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="5">
         <v>1838110</v>
@@ -1413,8 +1414,8 @@
       <c r="A24" s="12">
         <v>35</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>27</v>
+      <c r="B24" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="5">
         <v>832217</v>
@@ -1442,8 +1443,8 @@
       <c r="A25" s="12">
         <v>36</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>28</v>
+      <c r="B25" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="5">
         <v>1792452</v>
@@ -1471,8 +1472,8 @@
       <c r="A26" s="12">
         <v>37</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>29</v>
+      <c r="B26" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="5">
         <v>956809</v>
@@ -1500,8 +1501,8 @@
       <c r="A27" s="12">
         <v>38</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>30</v>
+      <c r="B27" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="5">
         <v>3570832</v>
@@ -1529,8 +1530,8 @@
       <c r="A28" s="12">
         <v>40</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>31</v>
+      <c r="B28" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="5">
         <v>3203112</v>
@@ -1558,8 +1559,8 @@
       <c r="A29" s="12">
         <v>42</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>32</v>
+      <c r="B29" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="5">
         <v>1266723</v>
@@ -1587,8 +1588,8 @@
       <c r="A30" s="12">
         <v>44</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>33</v>
+      <c r="B30" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="5">
         <v>880639</v>
@@ -1613,8 +1614,8 @@
       <c r="A31" s="12">
         <v>45</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>34</v>
+      <c r="B31" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="5">
         <v>621598</v>
@@ -1639,8 +1640,8 @@
       <c r="A32" s="12">
         <v>46</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>35</v>
+      <c r="B32" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="5">
         <v>1117985</v>
@@ -1665,8 +1666,8 @@
       <c r="A33" s="12">
         <v>48</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>36</v>
+      <c r="B33" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="5">
         <v>1080286</v>
@@ -1691,8 +1692,8 @@
       <c r="A34" s="12">
         <v>49</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>37</v>
+      <c r="B34" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C34" s="5">
         <v>1475750</v>
@@ -1717,8 +1718,8 @@
       <c r="A35" s="12">
         <v>51</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>38</v>
+      <c r="B35" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C35" s="5">
         <v>1227463</v>
@@ -1743,8 +1744,8 @@
       <c r="A36" s="12">
         <v>52</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>39</v>
+      <c r="B36" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="C36" s="5">
         <v>1487684</v>
@@ -1769,8 +1770,8 @@
       <c r="A37" s="12">
         <v>54</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>40</v>
+      <c r="B37" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C37" s="5">
         <v>868149</v>
@@ -1795,8 +1796,8 @@
       <c r="A38" s="12">
         <v>56</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>41</v>
+      <c r="B38" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C38" s="5">
         <v>1207163</v>
@@ -1824,8 +1825,8 @@
       <c r="A39" s="12">
         <v>58</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>42</v>
+      <c r="B39" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C39" s="5">
         <v>581497</v>
@@ -1853,8 +1854,8 @@
       <c r="A40" s="12">
         <v>60</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>43</v>
+      <c r="B40" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="C40" s="5">
         <v>1213562</v>
@@ -1882,8 +1883,8 @@
       <c r="A41" s="12">
         <v>62</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>44</v>
+      <c r="B41" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="5">
         <v>507818</v>
@@ -1911,8 +1912,8 @@
       <c r="A42" s="12">
         <v>64</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>45</v>
+      <c r="B42" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="C42" s="5">
         <v>1447133</v>
@@ -1940,8 +1941,8 @@
       <c r="A43" s="12">
         <v>66</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>46</v>
+      <c r="B43" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C43" s="5">
         <v>1836390</v>
@@ -1969,8 +1970,8 @@
       <c r="A44" s="12">
         <v>67</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>47</v>
+      <c r="B44" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C44" s="5">
         <v>594431</v>
@@ -1998,8 +1999,8 @@
       <c r="A45" s="12">
         <v>68</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>48</v>
+      <c r="B45" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C45" s="5">
         <v>1271315</v>
@@ -2027,8 +2028,8 @@
       <c r="A46" s="12">
         <v>70</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>49</v>
+      <c r="B46" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C46" s="5">
         <v>962675</v>
@@ -2056,8 +2057,8 @@
       <c r="A47" s="12">
         <v>72</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>50</v>
+      <c r="B47" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C47" s="5">
         <v>1139654</v>
@@ -2085,8 +2086,8 @@
       <c r="A48" s="12">
         <v>74</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>51</v>
+      <c r="B48" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C48" s="5">
         <v>2138788</v>
@@ -2114,8 +2115,8 @@
       <c r="A49" s="12">
         <v>75</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>52</v>
+      <c r="B49" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C49" s="5">
         <v>2951368</v>
@@ -2143,8 +2144,8 @@
       <c r="A50" s="12">
         <v>77</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>53</v>
+      <c r="B50" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C50" s="5">
         <v>1117607</v>
@@ -2172,8 +2173,8 @@
       <c r="A51" s="12">
         <v>79</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>54</v>
+      <c r="B51" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C51" s="5">
         <v>8479141</v>
@@ -2201,8 +2202,8 @@
       <c r="A52" s="12">
         <v>80</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>55</v>
+      <c r="B52" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="C52" s="5">
         <v>1645215</v>
@@ -2230,8 +2231,8 @@
       <c r="A53" s="12">
         <v>82</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>56</v>
+      <c r="B53" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C53" s="5">
         <v>1740138</v>
@@ -2259,8 +2260,8 @@
       <c r="A54" s="12">
         <v>83</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>57</v>
+      <c r="B54" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C54" s="5">
         <v>1278619</v>
@@ -2288,8 +2289,8 @@
       <c r="A55" s="12">
         <v>84</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>58</v>
+      <c r="B55" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C55" s="5">
         <v>1007560</v>
@@ -2317,8 +2318,8 @@
       <c r="A56" s="12">
         <v>86</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>59</v>
+      <c r="B56" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C56" s="5">
         <v>1022856</v>
@@ -2346,8 +2347,8 @@
       <c r="A57" s="12">
         <v>87</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>60</v>
+      <c r="B57" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C57" s="5">
         <v>1619011</v>
@@ -2380,8 +2381,8 @@
       <c r="A58" s="12">
         <v>89</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>61</v>
+      <c r="B58" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="C58" s="5">
         <v>1976372</v>
@@ -2414,8 +2415,8 @@
       <c r="A59" s="12">
         <v>91</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>62</v>
+      <c r="B59" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C59" s="5">
         <v>1708708</v>
@@ -2448,8 +2449,8 @@
       <c r="A60" s="12">
         <v>92</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>63</v>
+      <c r="B60" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C60" s="5">
         <v>1214590</v>
@@ -2482,8 +2483,8 @@
       <c r="A61" s="12">
         <v>93</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>64</v>
+      <c r="B61" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C61" s="5">
         <v>740059</v>
@@ -2516,8 +2517,8 @@
       <c r="A62" s="12">
         <v>94</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>65</v>
+      <c r="B62" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C62" s="5">
         <v>1227576</v>
@@ -2550,8 +2551,8 @@
       <c r="A63" s="12">
         <v>95</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>66</v>
+      <c r="B63" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C63" s="5">
         <v>892802</v>
@@ -2584,8 +2585,8 @@
       <c r="A64" s="12">
         <v>96</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>67</v>
+      <c r="B64" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="C64" s="5">
         <v>1198120</v>

--- a/src/Density/TongDanSo.xlsx
+++ b/src/Density/TongDanSo.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>01</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Ca Mau</t>
+  </si>
+  <si>
+    <t>TOAN QUOC</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
   <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,22 +711,25 @@
       <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2">
         <v>2016</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>2017</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>2018</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2019</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2020</v>
       </c>
-      <c r="H1" s="9">
+      <c r="I1" s="9">
         <v>2021</v>
       </c>
       <c r="J1" s="7"/>
@@ -743,22 +749,22 @@
       <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>7590766</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>7742188</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>7914485</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>8093891</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>8246540</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>8330834</v>
       </c>
       <c r="J2" s="7"/>
@@ -778,22 +784,22 @@
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>820427</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>833692</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>846531</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>858091</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>870240</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>887086</v>
       </c>
       <c r="J3" s="7"/>
@@ -813,22 +819,22 @@
       <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>524235</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>526418</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>528656</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>530856</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>533085</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>542217</v>
       </c>
       <c r="J4" s="7"/>
@@ -848,22 +854,22 @@
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>307675</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>309883</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>312000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>314378</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>316463</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>323712</v>
       </c>
       <c r="J5" s="7"/>
@@ -883,22 +889,22 @@
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>763377</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>770504</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>778300</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>786258</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>792900</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>801668</v>
       </c>
       <c r="J6" s="7"/>
@@ -918,22 +924,22 @@
       <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>696453</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>708571</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>720829</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>733337</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>746355</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>761890</v>
       </c>
       <c r="J7" s="7"/>
@@ -953,22 +959,22 @@
       <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>568267</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>579387</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>590518</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>601659</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>613480</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>625089</v>
       </c>
       <c r="P8"/>
@@ -982,22 +988,22 @@
       <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>436321</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>444506</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>453383</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>462629</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>469811</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>478430</v>
       </c>
       <c r="P9"/>
@@ -1011,22 +1017,22 @@
       <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>1194937</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>1213400</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>1233074</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>1252700</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>1270556</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>1287718</v>
       </c>
       <c r="P10"/>
@@ -1040,22 +1046,22 @@
       <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
         <v>800321</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>807287</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>814579</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>823034</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>831586</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>842671</v>
       </c>
       <c r="P11"/>
@@ -1069,22 +1075,22 @@
       <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>836963</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>845000</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>850413</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>855804</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>861216</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>871724</v>
       </c>
       <c r="P12"/>
@@ -1098,22 +1104,22 @@
       <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>1242824</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>1256124</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>1273558</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>1290945</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>1307871</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>1323150</v>
       </c>
       <c r="P13"/>
@@ -1127,22 +1133,22 @@
       <c r="B14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>763396</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>768698</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>775866</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>782811</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>788706</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>796939</v>
       </c>
       <c r="P14"/>
@@ -1156,22 +1162,22 @@
       <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="5">
         <v>1261240</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>1285209</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>1303912</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>1324842</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>1337605</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>1350851</v>
       </c>
       <c r="P15"/>
@@ -1185,22 +1191,22 @@
       <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="5">
         <v>1696903</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>1736787</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>1777506</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>1810421</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>1841624</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>1875238</v>
       </c>
       <c r="P16"/>
@@ -1214,22 +1220,22 @@
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="5">
         <v>1409008</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>1430475</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>1449585</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>1466399</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>1481884</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>1507539</v>
       </c>
       <c r="P17"/>
@@ -1243,22 +1249,22 @@
       <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="5">
         <v>1106141</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>1123140</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>1138370</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>1154836</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>1171232</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>1191782</v>
       </c>
       <c r="P18"/>
@@ -1272,22 +1278,22 @@
       <c r="B19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="5">
         <v>1257844</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>1297762</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>1337345</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>1378592</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>1419126</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>1462945</v>
       </c>
       <c r="P19"/>
@@ -1301,22 +1307,22 @@
       <c r="B20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D20" s="5">
         <v>1832812</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <v>1850587</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>1877682</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>1896911</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>1916774</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>1936775</v>
       </c>
       <c r="P20"/>
@@ -1330,22 +1336,22 @@
       <c r="B21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="5">
+      <c r="D21" s="5">
         <v>1985314</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>2001399</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>2016420</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>2033300</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>2053493</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>2072388</v>
       </c>
       <c r="P21"/>
@@ -1359,22 +1365,22 @@
       <c r="B22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D22" s="5">
         <v>1215503</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>1228823</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>1242395</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>1255839</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>1269090</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>1284552</v>
       </c>
       <c r="P22"/>
@@ -1388,22 +1394,22 @@
       <c r="B23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="5">
         <v>1838110</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="5">
         <v>1846101</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>1854128</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>1862184</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <v>1870240</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>1875663</v>
       </c>
       <c r="P23"/>
@@ -1417,22 +1423,22 @@
       <c r="B24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="5">
+      <c r="D24" s="5">
         <v>832217</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <v>839760</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>847137</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>854469</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <v>861832</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>875216</v>
       </c>
       <c r="P24"/>
@@ -1446,22 +1452,22 @@
       <c r="B25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5">
         <v>1792452</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="5">
         <v>1788225</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>1784206</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>1780865</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <v>1780333</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>1836268</v>
       </c>
       <c r="P25"/>
@@ -1475,22 +1481,22 @@
       <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="5">
+      <c r="D26" s="5">
         <v>956809</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <v>965429</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>974666</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>984527</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>993920</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>1007570</v>
       </c>
       <c r="P26"/>
@@ -1504,22 +1510,22 @@
       <c r="B27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="5">
+      <c r="D27" s="5">
         <v>3570832</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>3603699</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>3631279</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>3645796</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>3664944</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>3716428</v>
       </c>
       <c r="P27"/>
@@ -1533,22 +1539,22 @@
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="5">
+      <c r="D28" s="5">
         <v>3203112</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="5">
         <v>3246691</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>3291369</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>3337207</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <v>3365198</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
         <v>3409812</v>
       </c>
       <c r="P28"/>
@@ -1562,22 +1568,22 @@
       <c r="B29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="5">
+      <c r="D29" s="5">
         <v>1266723</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E29" s="5">
         <v>1274239</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <v>1280513</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>1290263</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>1296622</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
         <v>1314056</v>
       </c>
       <c r="P29"/>
@@ -1591,22 +1597,22 @@
       <c r="B30" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="5">
+      <c r="D30" s="5">
         <v>880639</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <v>885725</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>891138</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>896601</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>901984</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>910655</v>
       </c>
     </row>
@@ -1617,22 +1623,22 @@
       <c r="B31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="5">
+      <c r="D31" s="5">
         <v>621598</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="5">
         <v>625372</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>629734</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>633440</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <v>637386</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
         <v>647790</v>
       </c>
     </row>
@@ -1643,22 +1649,22 @@
       <c r="B32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="5">
+      <c r="D32" s="5">
         <v>1117985</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <v>1123357</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>1125400</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>1129505</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <v>1133592</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
         <v>1153795</v>
       </c>
     </row>
@@ -1669,22 +1675,22 @@
       <c r="B33" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="5">
+      <c r="D33" s="5">
         <v>1080286</v>
       </c>
-      <c r="D33" s="5">
+      <c r="E33" s="5">
         <v>1097775</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <v>1114366</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>1141125</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <v>1169480</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
         <v>1195488</v>
       </c>
     </row>
@@ -1695,22 +1701,22 @@
       <c r="B34" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="5">
+      <c r="D34" s="5">
         <v>1475750</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="5">
         <v>1483288</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>1490764</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>1497479</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>1505042</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>1518477</v>
       </c>
     </row>
@@ -1721,22 +1727,22 @@
       <c r="B35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="5">
         <v>1227463</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>1228938</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>1230500</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>1231893</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <v>1233396</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>1244132</v>
       </c>
     </row>
@@ -1747,22 +1753,22 @@
       <c r="B36" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="5">
+      <c r="D36" s="5">
         <v>1487684</v>
       </c>
-      <c r="D36" s="5">
+      <c r="E36" s="5">
         <v>1487719</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F36" s="5">
         <v>1487771</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>1487817</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="5">
         <v>1487903</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
         <v>1508322</v>
       </c>
     </row>
@@ -1773,22 +1779,22 @@
       <c r="B37" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="5">
+      <c r="D37" s="5">
         <v>868149</v>
       </c>
-      <c r="D37" s="5">
+      <c r="E37" s="5">
         <v>870048</v>
       </c>
-      <c r="E37" s="5">
+      <c r="F37" s="5">
         <v>871495</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>873164</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H37" s="5">
         <v>874295</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="5">
         <v>875535</v>
       </c>
     </row>
@@ -1799,22 +1805,22 @@
       <c r="B38" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="5">
+      <c r="D38" s="5">
         <v>1207163</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="5">
         <v>1216289</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <v>1224485</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>1232823</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <v>1240436</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>1248062</v>
       </c>
       <c r="P38"/>
@@ -1828,22 +1834,22 @@
       <c r="B39" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="5">
+      <c r="D39" s="5">
         <v>581497</v>
       </c>
-      <c r="D39" s="5">
+      <c r="E39" s="5">
         <v>585375</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>588860</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>591032</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H39" s="5">
         <v>593644</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>596049</v>
       </c>
       <c r="P39"/>
@@ -1857,22 +1863,22 @@
       <c r="B40" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="5">
+      <c r="D40" s="5">
         <v>1213562</v>
       </c>
-      <c r="D40" s="5">
+      <c r="E40" s="5">
         <v>1220467</v>
       </c>
-      <c r="E40" s="5">
+      <c r="F40" s="5">
         <v>1227269</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>1232267</v>
       </c>
-      <c r="G40" s="5">
+      <c r="H40" s="5">
         <v>1239256</v>
       </c>
-      <c r="H40" s="5">
+      <c r="I40" s="5">
         <v>1246306</v>
       </c>
       <c r="P40"/>
@@ -1886,22 +1892,22 @@
       <c r="B41" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="5">
+      <c r="D41" s="5">
         <v>507818</v>
       </c>
-      <c r="D41" s="5">
+      <c r="E41" s="5">
         <v>520100</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>532358</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>543400</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <v>555645</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
         <v>568780</v>
       </c>
       <c r="P41"/>
@@ -1915,22 +1921,22 @@
       <c r="B42" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="5">
+      <c r="D42" s="5">
         <v>1447133</v>
       </c>
-      <c r="D42" s="5">
+      <c r="E42" s="5">
         <v>1468934</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F42" s="5">
         <v>1495700</v>
       </c>
-      <c r="F42" s="5">
+      <c r="G42" s="5">
         <v>1520155</v>
       </c>
-      <c r="G42" s="5">
+      <c r="H42" s="5">
         <v>1541829</v>
       </c>
-      <c r="H42" s="5">
+      <c r="I42" s="5">
         <v>1569721</v>
       </c>
       <c r="P42"/>
@@ -1944,22 +1950,22 @@
       <c r="B43" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="5">
+      <c r="D43" s="5">
         <v>1836390</v>
       </c>
-      <c r="D43" s="5">
+      <c r="E43" s="5">
         <v>1850314</v>
       </c>
-      <c r="E43" s="5">
+      <c r="F43" s="5">
         <v>1861518</v>
       </c>
-      <c r="F43" s="5">
+      <c r="G43" s="5">
         <v>1872574</v>
       </c>
-      <c r="G43" s="5">
+      <c r="H43" s="5">
         <v>1886937</v>
       </c>
-      <c r="H43" s="5">
+      <c r="I43" s="5">
         <v>1908999</v>
       </c>
       <c r="P43"/>
@@ -1973,22 +1979,22 @@
       <c r="B44" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="5">
+      <c r="D44" s="5">
         <v>594431</v>
       </c>
-      <c r="D44" s="5">
+      <c r="E44" s="5">
         <v>604892</v>
       </c>
-      <c r="E44" s="5">
+      <c r="F44" s="5">
         <v>615420</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>625822</v>
       </c>
-      <c r="G44" s="5">
+      <c r="H44" s="5">
         <v>637907</v>
       </c>
-      <c r="H44" s="5">
+      <c r="I44" s="5">
         <v>664416</v>
       </c>
       <c r="P44"/>
@@ -2002,22 +2008,22 @@
       <c r="B45" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="5">
+      <c r="D45" s="5">
         <v>1271315</v>
       </c>
-      <c r="D45" s="5">
+      <c r="E45" s="5">
         <v>1281339</v>
       </c>
-      <c r="E45" s="5">
+      <c r="F45" s="5">
         <v>1291441</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>1299335</v>
       </c>
-      <c r="G45" s="5">
+      <c r="H45" s="5">
         <v>1309792</v>
       </c>
-      <c r="H45" s="5">
+      <c r="I45" s="5">
         <v>1321839</v>
       </c>
       <c r="P45"/>
@@ -2031,22 +2037,22 @@
       <c r="B46" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="5">
+      <c r="D46" s="5">
         <v>962675</v>
       </c>
-      <c r="D46" s="5">
+      <c r="E46" s="5">
         <v>972610</v>
       </c>
-      <c r="E46" s="5">
+      <c r="F46" s="5">
         <v>984910</v>
       </c>
-      <c r="F46" s="5">
+      <c r="G46" s="5">
         <v>997766</v>
       </c>
-      <c r="G46" s="5">
+      <c r="H46" s="5">
         <v>1011076</v>
       </c>
-      <c r="H46" s="5">
+      <c r="I46" s="5">
         <v>1024285</v>
       </c>
       <c r="P46"/>
@@ -2060,22 +2066,22 @@
       <c r="B47" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="5">
+      <c r="D47" s="5">
         <v>1139654</v>
       </c>
-      <c r="D47" s="5">
+      <c r="E47" s="5">
         <v>1151074</v>
       </c>
-      <c r="E47" s="5">
+      <c r="F47" s="5">
         <v>1160681</v>
       </c>
-      <c r="F47" s="5">
+      <c r="G47" s="5">
         <v>1171683</v>
       </c>
-      <c r="G47" s="5">
+      <c r="H47" s="5">
         <v>1178329</v>
       </c>
-      <c r="H47" s="5">
+      <c r="I47" s="5">
         <v>1181907</v>
       </c>
       <c r="P47"/>
@@ -2089,22 +2095,22 @@
       <c r="B48" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="5">
+      <c r="D48" s="5">
         <v>2138788</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E48" s="5">
         <v>2227154</v>
       </c>
-      <c r="E48" s="5">
+      <c r="F48" s="5">
         <v>2345184</v>
       </c>
-      <c r="F48" s="5">
+      <c r="G48" s="5">
         <v>2456319</v>
       </c>
-      <c r="G48" s="5">
+      <c r="H48" s="5">
         <v>2580550</v>
       </c>
-      <c r="H48" s="5">
+      <c r="I48" s="5">
         <v>2596785</v>
       </c>
       <c r="P48"/>
@@ -2118,22 +2124,22 @@
       <c r="B49" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="5">
+      <c r="D49" s="5">
         <v>2951368</v>
       </c>
-      <c r="D49" s="5">
+      <c r="E49" s="5">
         <v>3004857</v>
       </c>
-      <c r="E49" s="5">
+      <c r="F49" s="5">
         <v>3055089</v>
       </c>
-      <c r="F49" s="5">
+      <c r="G49" s="5">
         <v>3113713</v>
       </c>
-      <c r="G49" s="5">
+      <c r="H49" s="5">
         <v>3177401</v>
       </c>
-      <c r="H49" s="5">
+      <c r="I49" s="5">
         <v>3169103</v>
       </c>
       <c r="P49"/>
@@ -2147,22 +2153,22 @@
       <c r="B50" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="5">
+      <c r="D50" s="5">
         <v>1117607</v>
       </c>
-      <c r="D50" s="5">
+      <c r="E50" s="5">
         <v>1127244</v>
       </c>
-      <c r="E50" s="5">
+      <c r="F50" s="5">
         <v>1138281</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G50" s="5">
         <v>1152218</v>
       </c>
-      <c r="G50" s="5">
+      <c r="H50" s="5">
         <v>1167937</v>
       </c>
-      <c r="H50" s="5">
+      <c r="I50" s="5">
         <v>1176079</v>
       </c>
       <c r="P50"/>
@@ -2176,22 +2182,22 @@
       <c r="B51" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="5">
+      <c r="D51" s="5">
         <v>8479141</v>
       </c>
-      <c r="D51" s="5">
+      <c r="E51" s="5">
         <v>8649646</v>
       </c>
-      <c r="E51" s="5">
+      <c r="F51" s="5">
         <v>8843200</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>9038566</v>
       </c>
-      <c r="G51" s="5">
+      <c r="H51" s="5">
         <v>9227598</v>
       </c>
-      <c r="H51" s="5">
+      <c r="I51" s="5">
         <v>9166840</v>
       </c>
       <c r="P51"/>
@@ -2205,22 +2211,22 @@
       <c r="B52" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="5">
+      <c r="D52" s="5">
         <v>1645215</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E52" s="5">
         <v>1662280</v>
       </c>
-      <c r="E52" s="5">
+      <c r="F52" s="5">
         <v>1678929</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>1695100</v>
       </c>
-      <c r="G52" s="5">
+      <c r="H52" s="5">
         <v>1713658</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <v>1725752</v>
       </c>
       <c r="P52"/>
@@ -2234,22 +2240,22 @@
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="5">
+      <c r="D53" s="5">
         <v>1740138</v>
       </c>
-      <c r="D53" s="5">
+      <c r="E53" s="5">
         <v>1751841</v>
       </c>
-      <c r="E53" s="5">
+      <c r="F53" s="5">
         <v>1759065</v>
       </c>
-      <c r="F53" s="5">
+      <c r="G53" s="5">
         <v>1766289</v>
       </c>
-      <c r="G53" s="5">
+      <c r="H53" s="5">
         <v>1772544</v>
       </c>
-      <c r="H53" s="5">
+      <c r="I53" s="5">
         <v>1779416</v>
       </c>
       <c r="P53"/>
@@ -2263,22 +2269,22 @@
       <c r="B54" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="5">
+      <c r="D54" s="5">
         <v>1278619</v>
       </c>
-      <c r="D54" s="5">
+      <c r="E54" s="5">
         <v>1282437</v>
       </c>
-      <c r="E54" s="5">
+      <c r="F54" s="5">
         <v>1285963</v>
       </c>
-      <c r="F54" s="5">
+      <c r="G54" s="5">
         <v>1289098</v>
       </c>
-      <c r="G54" s="5">
+      <c r="H54" s="5">
         <v>1292397</v>
       </c>
-      <c r="H54" s="5">
+      <c r="I54" s="5">
         <v>1295705</v>
       </c>
       <c r="P54"/>
@@ -2292,22 +2298,22 @@
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="5">
+      <c r="D55" s="5">
         <v>1007560</v>
       </c>
-      <c r="D55" s="5">
+      <c r="E55" s="5">
         <v>1008087</v>
       </c>
-      <c r="E55" s="5">
+      <c r="F55" s="5">
         <v>1008784</v>
       </c>
-      <c r="F55" s="5">
+      <c r="G55" s="5">
         <v>1009322</v>
       </c>
-      <c r="G55" s="5">
+      <c r="H55" s="5">
         <v>1009940</v>
       </c>
-      <c r="H55" s="5">
+      <c r="I55" s="5">
         <v>1018635</v>
       </c>
       <c r="P55"/>
@@ -2321,22 +2327,22 @@
       <c r="B56" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="5">
+      <c r="D56" s="5">
         <v>1022856</v>
       </c>
-      <c r="D56" s="5">
+      <c r="E56" s="5">
         <v>1022617</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F56" s="5">
         <v>1022682</v>
       </c>
-      <c r="F56" s="5">
+      <c r="G56" s="5">
         <v>1022619</v>
       </c>
-      <c r="G56" s="5">
+      <c r="H56" s="5">
         <v>1022971</v>
       </c>
-      <c r="H56" s="5">
+      <c r="I56" s="5">
         <v>1029015</v>
       </c>
       <c r="P56"/>
@@ -2350,22 +2356,22 @@
       <c r="B57" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="5">
+      <c r="D57" s="5">
         <v>1619011</v>
       </c>
-      <c r="D57" s="5">
+      <c r="E57" s="5">
         <v>1612489</v>
       </c>
-      <c r="E57" s="5">
+      <c r="F57" s="5">
         <v>1606069</v>
       </c>
-      <c r="F57" s="5">
+      <c r="G57" s="5">
         <v>1598754</v>
       </c>
-      <c r="G57" s="5">
+      <c r="H57" s="5">
         <v>1600014</v>
       </c>
-      <c r="H57" s="5">
+      <c r="I57" s="5">
         <v>1601306</v>
       </c>
       <c r="P57" s="7"/>
@@ -2384,22 +2390,22 @@
       <c r="B58" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="5">
+      <c r="D58" s="5">
         <v>1976372</v>
       </c>
-      <c r="D58" s="5">
+      <c r="E58" s="5">
         <v>1954177</v>
       </c>
-      <c r="E58" s="5">
+      <c r="F58" s="5">
         <v>1931000</v>
       </c>
-      <c r="F58" s="5">
+      <c r="G58" s="5">
         <v>1907401</v>
       </c>
-      <c r="G58" s="5">
+      <c r="H58" s="5">
         <v>1904532</v>
       </c>
-      <c r="H58" s="5">
+      <c r="I58" s="5">
         <v>1909506</v>
       </c>
       <c r="P58" s="7"/>
@@ -2418,22 +2424,22 @@
       <c r="B59" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="5">
+      <c r="D59" s="5">
         <v>1708708</v>
       </c>
-      <c r="D59" s="5">
+      <c r="E59" s="5">
         <v>1712891</v>
       </c>
-      <c r="E59" s="5">
+      <c r="F59" s="5">
         <v>1718130</v>
       </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
         <v>1723695</v>
       </c>
-      <c r="G59" s="5">
+      <c r="H59" s="5">
         <v>1728869</v>
       </c>
-      <c r="H59" s="5">
+      <c r="I59" s="5">
         <v>1752321</v>
       </c>
       <c r="P59" s="7"/>
@@ -2452,22 +2458,22 @@
       <c r="B60" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="5">
+      <c r="D60" s="5">
         <v>1214590</v>
       </c>
-      <c r="D60" s="5">
+      <c r="E60" s="5">
         <v>1222417</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F60" s="5">
         <v>1227744</v>
       </c>
-      <c r="F60" s="5">
+      <c r="G60" s="5">
         <v>1235954</v>
       </c>
-      <c r="G60" s="5">
+      <c r="H60" s="5">
         <v>1240731</v>
       </c>
-      <c r="H60" s="5">
+      <c r="I60" s="5">
         <v>1246993</v>
       </c>
       <c r="P60" s="7"/>
@@ -2486,22 +2492,22 @@
       <c r="B61" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="5">
+      <c r="D61" s="5">
         <v>740059</v>
       </c>
-      <c r="D61" s="5">
+      <c r="E61" s="5">
         <v>737252</v>
       </c>
-      <c r="E61" s="5">
+      <c r="F61" s="5">
         <v>734903</v>
       </c>
-      <c r="F61" s="5">
+      <c r="G61" s="5">
         <v>732162</v>
       </c>
-      <c r="G61" s="5">
+      <c r="H61" s="5">
         <v>729780</v>
       </c>
-      <c r="H61" s="5">
+      <c r="I61" s="5">
         <v>729888</v>
       </c>
       <c r="P61" s="7"/>
@@ -2520,22 +2526,22 @@
       <c r="B62" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="5">
+      <c r="D62" s="5">
         <v>1227576</v>
       </c>
-      <c r="D62" s="5">
+      <c r="E62" s="5">
         <v>1218315</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="5">
         <v>1208822</v>
       </c>
-      <c r="F62" s="5">
+      <c r="G62" s="5">
         <v>1199528</v>
       </c>
-      <c r="G62" s="5">
+      <c r="H62" s="5">
         <v>1195741</v>
       </c>
-      <c r="H62" s="5">
+      <c r="I62" s="5">
         <v>1206819</v>
       </c>
       <c r="P62" s="8"/>
@@ -2554,22 +2560,22 @@
       <c r="B63" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="5">
+      <c r="D63" s="5">
         <v>892802</v>
       </c>
-      <c r="D63" s="5">
+      <c r="E63" s="5">
         <v>897718</v>
       </c>
-      <c r="E63" s="5">
+      <c r="F63" s="5">
         <v>902964</v>
       </c>
-      <c r="F63" s="5">
+      <c r="G63" s="5">
         <v>908241</v>
       </c>
-      <c r="G63" s="5">
+      <c r="H63" s="5">
         <v>913481</v>
       </c>
-      <c r="H63" s="5">
+      <c r="I63" s="5">
         <v>918510</v>
       </c>
       <c r="P63" s="8"/>
@@ -2588,22 +2594,22 @@
       <c r="B64" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="5">
+      <c r="D64" s="5">
         <v>1198120</v>
       </c>
-      <c r="D64" s="5">
+      <c r="E64" s="5">
         <v>1196979</v>
       </c>
-      <c r="E64" s="5">
+      <c r="F64" s="5">
         <v>1195559</v>
       </c>
-      <c r="F64" s="5">
+      <c r="G64" s="5">
         <v>1194281</v>
       </c>
-      <c r="G64" s="5">
+      <c r="H64" s="5">
         <v>1193894</v>
       </c>
-      <c r="H64" s="5">
+      <c r="I64" s="5">
         <v>1208752</v>
       </c>
       <c r="P64" s="8"/>

--- a/src/Density/TongDanSo.xlsx
+++ b/src/Density/TongDanSo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>01</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>Ca Mau</t>
-  </si>
-  <si>
-    <t>TOAN QUOC</t>
   </si>
 </sst>
 </file>
@@ -646,1904 +643,1902 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W85"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="1" customWidth="1"/>
-    <col min="17" max="18" width="11.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" customWidth="1"/>
-    <col min="22" max="22" width="12.44140625" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" customWidth="1"/>
-    <col min="25" max="25" width="12.44140625" customWidth="1"/>
-    <col min="26" max="26" width="10.5546875" customWidth="1"/>
-    <col min="27" max="27" width="11.44140625" customWidth="1"/>
-    <col min="28" max="28" width="11.88671875" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" customWidth="1"/>
-    <col min="34" max="34" width="12.88671875" customWidth="1"/>
-    <col min="35" max="35" width="10.6640625" customWidth="1"/>
-    <col min="36" max="36" width="10.88671875" customWidth="1"/>
-    <col min="38" max="38" width="11.109375" customWidth="1"/>
-    <col min="40" max="40" width="10.44140625" customWidth="1"/>
-    <col min="42" max="42" width="12" customWidth="1"/>
-    <col min="43" max="43" width="11" customWidth="1"/>
-    <col min="45" max="45" width="12.33203125" customWidth="1"/>
-    <col min="46" max="46" width="13" customWidth="1"/>
-    <col min="47" max="47" width="11.6640625" customWidth="1"/>
-    <col min="48" max="48" width="12.44140625" customWidth="1"/>
-    <col min="49" max="49" width="14.109375" customWidth="1"/>
-    <col min="50" max="50" width="13.6640625" customWidth="1"/>
-    <col min="51" max="51" width="10.44140625" customWidth="1"/>
-    <col min="52" max="52" width="11.44140625" customWidth="1"/>
-    <col min="53" max="53" width="11.33203125" customWidth="1"/>
-    <col min="54" max="54" width="10.88671875" customWidth="1"/>
-    <col min="55" max="55" width="12.109375" customWidth="1"/>
-    <col min="56" max="56" width="10.44140625" customWidth="1"/>
-    <col min="57" max="57" width="11.44140625" customWidth="1"/>
-    <col min="58" max="58" width="14" customWidth="1"/>
-    <col min="59" max="59" width="11" customWidth="1"/>
-    <col min="60" max="60" width="10.6640625" customWidth="1"/>
-    <col min="61" max="61" width="9.44140625" customWidth="1"/>
-    <col min="62" max="62" width="10.44140625" customWidth="1"/>
-    <col min="64" max="64" width="10.88671875" customWidth="1"/>
+    <col min="2" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" customWidth="1"/>
+    <col min="25" max="25" width="10.5546875" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" customWidth="1"/>
+    <col min="31" max="31" width="11.5546875" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" customWidth="1"/>
+    <col min="33" max="33" width="12.88671875" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.88671875" customWidth="1"/>
+    <col min="37" max="37" width="11.109375" customWidth="1"/>
+    <col min="39" max="39" width="10.44140625" customWidth="1"/>
+    <col min="41" max="41" width="12" customWidth="1"/>
+    <col min="42" max="42" width="11" customWidth="1"/>
+    <col min="44" max="44" width="12.33203125" customWidth="1"/>
+    <col min="45" max="45" width="13" customWidth="1"/>
+    <col min="46" max="46" width="11.6640625" customWidth="1"/>
+    <col min="47" max="47" width="12.44140625" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="13.6640625" customWidth="1"/>
+    <col min="50" max="50" width="10.44140625" customWidth="1"/>
+    <col min="51" max="51" width="11.44140625" customWidth="1"/>
+    <col min="52" max="52" width="11.33203125" customWidth="1"/>
+    <col min="53" max="53" width="10.88671875" customWidth="1"/>
+    <col min="54" max="54" width="12.109375" customWidth="1"/>
+    <col min="55" max="55" width="10.44140625" customWidth="1"/>
+    <col min="56" max="56" width="11.44140625" customWidth="1"/>
+    <col min="57" max="57" width="14" customWidth="1"/>
+    <col min="58" max="58" width="11" customWidth="1"/>
+    <col min="59" max="59" width="10.6640625" customWidth="1"/>
+    <col min="60" max="60" width="9.44140625" customWidth="1"/>
+    <col min="61" max="61" width="10.44140625" customWidth="1"/>
+    <col min="63" max="63" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
+      <c r="C1" s="2">
+        <v>2016</v>
       </c>
       <c r="D1" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E1" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F1" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G1" s="2">
-        <v>2019</v>
-      </c>
-      <c r="H1" s="2">
         <v>2020</v>
       </c>
-      <c r="I1" s="9">
+      <c r="H1" s="9">
         <v>2021</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
-      <c r="R1"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="5">
+        <v>7590766</v>
+      </c>
       <c r="D2" s="5">
-        <v>7590766</v>
+        <v>7742188</v>
       </c>
       <c r="E2" s="5">
-        <v>7742188</v>
+        <v>7914485</v>
       </c>
       <c r="F2" s="5">
-        <v>7914485</v>
+        <v>8093891</v>
       </c>
       <c r="G2" s="5">
-        <v>8093891</v>
+        <v>8246540</v>
       </c>
       <c r="H2" s="5">
-        <v>8246540</v>
-      </c>
-      <c r="I2" s="5">
         <v>8330834</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="5">
+        <v>820427</v>
+      </c>
       <c r="D3" s="5">
-        <v>820427</v>
+        <v>833692</v>
       </c>
       <c r="E3" s="5">
-        <v>833692</v>
+        <v>846531</v>
       </c>
       <c r="F3" s="5">
-        <v>846531</v>
+        <v>858091</v>
       </c>
       <c r="G3" s="5">
-        <v>858091</v>
+        <v>870240</v>
       </c>
       <c r="H3" s="5">
-        <v>870240</v>
-      </c>
-      <c r="I3" s="5">
         <v>887086</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="C4" s="5">
+        <v>524235</v>
+      </c>
       <c r="D4" s="5">
-        <v>524235</v>
+        <v>526418</v>
       </c>
       <c r="E4" s="5">
-        <v>526418</v>
+        <v>528656</v>
       </c>
       <c r="F4" s="5">
-        <v>528656</v>
+        <v>530856</v>
       </c>
       <c r="G4" s="5">
-        <v>530856</v>
+        <v>533085</v>
       </c>
       <c r="H4" s="5">
-        <v>533085</v>
-      </c>
-      <c r="I4" s="5">
         <v>542217</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-    </row>
-    <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="5">
+        <v>307675</v>
+      </c>
       <c r="D5" s="5">
-        <v>307675</v>
+        <v>309883</v>
       </c>
       <c r="E5" s="5">
-        <v>309883</v>
+        <v>312000</v>
       </c>
       <c r="F5" s="5">
-        <v>312000</v>
+        <v>314378</v>
       </c>
       <c r="G5" s="5">
-        <v>314378</v>
+        <v>316463</v>
       </c>
       <c r="H5" s="5">
-        <v>316463</v>
-      </c>
-      <c r="I5" s="5">
         <v>323712</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="5">
+        <v>763377</v>
+      </c>
       <c r="D6" s="5">
-        <v>763377</v>
+        <v>770504</v>
       </c>
       <c r="E6" s="5">
-        <v>770504</v>
+        <v>778300</v>
       </c>
       <c r="F6" s="5">
-        <v>778300</v>
+        <v>786258</v>
       </c>
       <c r="G6" s="5">
-        <v>786258</v>
+        <v>792900</v>
       </c>
       <c r="H6" s="5">
-        <v>792900</v>
-      </c>
-      <c r="I6" s="5">
         <v>801668</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>10</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="5">
+        <v>696453</v>
+      </c>
       <c r="D7" s="5">
-        <v>696453</v>
+        <v>708571</v>
       </c>
       <c r="E7" s="5">
-        <v>708571</v>
+        <v>720829</v>
       </c>
       <c r="F7" s="5">
-        <v>720829</v>
+        <v>733337</v>
       </c>
       <c r="G7" s="5">
-        <v>733337</v>
+        <v>746355</v>
       </c>
       <c r="H7" s="5">
-        <v>746355</v>
-      </c>
-      <c r="I7" s="5">
         <v>761890</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>11</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="5">
+        <v>568267</v>
+      </c>
       <c r="D8" s="5">
-        <v>568267</v>
+        <v>579387</v>
       </c>
       <c r="E8" s="5">
-        <v>579387</v>
+        <v>590518</v>
       </c>
       <c r="F8" s="5">
-        <v>590518</v>
+        <v>601659</v>
       </c>
       <c r="G8" s="5">
-        <v>601659</v>
+        <v>613480</v>
       </c>
       <c r="H8" s="5">
-        <v>613480</v>
-      </c>
-      <c r="I8" s="5">
         <v>625089</v>
       </c>
+      <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>12</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="5">
+        <v>436321</v>
+      </c>
       <c r="D9" s="5">
-        <v>436321</v>
+        <v>444506</v>
       </c>
       <c r="E9" s="5">
-        <v>444506</v>
+        <v>453383</v>
       </c>
       <c r="F9" s="5">
-        <v>453383</v>
+        <v>462629</v>
       </c>
       <c r="G9" s="5">
-        <v>462629</v>
+        <v>469811</v>
       </c>
       <c r="H9" s="5">
-        <v>469811</v>
-      </c>
-      <c r="I9" s="5">
         <v>478430</v>
       </c>
+      <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>14</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="5">
+        <v>1194937</v>
+      </c>
       <c r="D10" s="5">
-        <v>1194937</v>
+        <v>1213400</v>
       </c>
       <c r="E10" s="5">
-        <v>1213400</v>
+        <v>1233074</v>
       </c>
       <c r="F10" s="5">
-        <v>1233074</v>
+        <v>1252700</v>
       </c>
       <c r="G10" s="5">
-        <v>1252700</v>
+        <v>1270556</v>
       </c>
       <c r="H10" s="5">
-        <v>1270556</v>
-      </c>
-      <c r="I10" s="5">
         <v>1287718</v>
       </c>
+      <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>15</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="C11" s="5">
+        <v>800321</v>
+      </c>
       <c r="D11" s="5">
-        <v>800321</v>
+        <v>807287</v>
       </c>
       <c r="E11" s="5">
-        <v>807287</v>
+        <v>814579</v>
       </c>
       <c r="F11" s="5">
-        <v>814579</v>
+        <v>823034</v>
       </c>
       <c r="G11" s="5">
-        <v>823034</v>
+        <v>831586</v>
       </c>
       <c r="H11" s="5">
-        <v>831586</v>
-      </c>
-      <c r="I11" s="5">
         <v>842671</v>
       </c>
+      <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>17</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="C12" s="5">
+        <v>836963</v>
+      </c>
       <c r="D12" s="5">
-        <v>836963</v>
+        <v>845000</v>
       </c>
       <c r="E12" s="5">
-        <v>845000</v>
+        <v>850413</v>
       </c>
       <c r="F12" s="5">
-        <v>850413</v>
+        <v>855804</v>
       </c>
       <c r="G12" s="5">
-        <v>855804</v>
+        <v>861216</v>
       </c>
       <c r="H12" s="5">
-        <v>861216</v>
-      </c>
-      <c r="I12" s="5">
         <v>871724</v>
       </c>
+      <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>19</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="C13" s="5">
+        <v>1242824</v>
+      </c>
       <c r="D13" s="5">
-        <v>1242824</v>
+        <v>1256124</v>
       </c>
       <c r="E13" s="5">
-        <v>1256124</v>
+        <v>1273558</v>
       </c>
       <c r="F13" s="5">
-        <v>1273558</v>
+        <v>1290945</v>
       </c>
       <c r="G13" s="5">
-        <v>1290945</v>
+        <v>1307871</v>
       </c>
       <c r="H13" s="5">
-        <v>1307871</v>
-      </c>
-      <c r="I13" s="5">
         <v>1323150</v>
       </c>
+      <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>20</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="C14" s="5">
+        <v>763396</v>
+      </c>
       <c r="D14" s="5">
-        <v>763396</v>
+        <v>768698</v>
       </c>
       <c r="E14" s="5">
-        <v>768698</v>
+        <v>775866</v>
       </c>
       <c r="F14" s="5">
-        <v>775866</v>
+        <v>782811</v>
       </c>
       <c r="G14" s="5">
-        <v>782811</v>
+        <v>788706</v>
       </c>
       <c r="H14" s="5">
-        <v>788706</v>
-      </c>
-      <c r="I14" s="5">
         <v>796939</v>
       </c>
+      <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>22</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
+      <c r="C15" s="5">
+        <v>1261240</v>
+      </c>
       <c r="D15" s="5">
-        <v>1261240</v>
+        <v>1285209</v>
       </c>
       <c r="E15" s="5">
-        <v>1285209</v>
+        <v>1303912</v>
       </c>
       <c r="F15" s="5">
-        <v>1303912</v>
+        <v>1324842</v>
       </c>
       <c r="G15" s="5">
-        <v>1324842</v>
+        <v>1337605</v>
       </c>
       <c r="H15" s="5">
-        <v>1337605</v>
-      </c>
-      <c r="I15" s="5">
         <v>1350851</v>
       </c>
+      <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>24</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="C16" s="5">
+        <v>1696903</v>
+      </c>
       <c r="D16" s="5">
-        <v>1696903</v>
+        <v>1736787</v>
       </c>
       <c r="E16" s="5">
-        <v>1736787</v>
+        <v>1777506</v>
       </c>
       <c r="F16" s="5">
-        <v>1777506</v>
+        <v>1810421</v>
       </c>
       <c r="G16" s="5">
-        <v>1810421</v>
+        <v>1841624</v>
       </c>
       <c r="H16" s="5">
-        <v>1841624</v>
-      </c>
-      <c r="I16" s="5">
         <v>1875238</v>
       </c>
+      <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>25</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="C17" s="5">
+        <v>1409008</v>
+      </c>
       <c r="D17" s="5">
-        <v>1409008</v>
+        <v>1430475</v>
       </c>
       <c r="E17" s="5">
-        <v>1430475</v>
+        <v>1449585</v>
       </c>
       <c r="F17" s="5">
-        <v>1449585</v>
+        <v>1466399</v>
       </c>
       <c r="G17" s="5">
-        <v>1466399</v>
+        <v>1481884</v>
       </c>
       <c r="H17" s="5">
-        <v>1481884</v>
-      </c>
-      <c r="I17" s="5">
         <v>1507539</v>
       </c>
+      <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>26</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="C18" s="5">
+        <v>1106141</v>
+      </c>
       <c r="D18" s="5">
-        <v>1106141</v>
+        <v>1123140</v>
       </c>
       <c r="E18" s="5">
-        <v>1123140</v>
+        <v>1138370</v>
       </c>
       <c r="F18" s="5">
-        <v>1138370</v>
+        <v>1154836</v>
       </c>
       <c r="G18" s="5">
-        <v>1154836</v>
+        <v>1171232</v>
       </c>
       <c r="H18" s="5">
-        <v>1171232</v>
-      </c>
-      <c r="I18" s="5">
         <v>1191782</v>
       </c>
+      <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>27</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="C19" s="5">
+        <v>1257844</v>
+      </c>
       <c r="D19" s="5">
-        <v>1257844</v>
+        <v>1297762</v>
       </c>
       <c r="E19" s="5">
-        <v>1297762</v>
+        <v>1337345</v>
       </c>
       <c r="F19" s="5">
-        <v>1337345</v>
+        <v>1378592</v>
       </c>
       <c r="G19" s="5">
-        <v>1378592</v>
+        <v>1419126</v>
       </c>
       <c r="H19" s="5">
-        <v>1419126</v>
-      </c>
-      <c r="I19" s="5">
         <v>1462945</v>
       </c>
+      <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>30</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="C20" s="5">
+        <v>1832812</v>
+      </c>
       <c r="D20" s="5">
-        <v>1832812</v>
+        <v>1850587</v>
       </c>
       <c r="E20" s="5">
-        <v>1850587</v>
+        <v>1877682</v>
       </c>
       <c r="F20" s="5">
-        <v>1877682</v>
+        <v>1896911</v>
       </c>
       <c r="G20" s="5">
-        <v>1896911</v>
+        <v>1916774</v>
       </c>
       <c r="H20" s="5">
-        <v>1916774</v>
-      </c>
-      <c r="I20" s="5">
         <v>1936775</v>
       </c>
+      <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>31</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="C21" s="5">
+        <v>1985314</v>
+      </c>
       <c r="D21" s="5">
-        <v>1985314</v>
+        <v>2001399</v>
       </c>
       <c r="E21" s="5">
-        <v>2001399</v>
+        <v>2016420</v>
       </c>
       <c r="F21" s="5">
-        <v>2016420</v>
+        <v>2033300</v>
       </c>
       <c r="G21" s="5">
-        <v>2033300</v>
+        <v>2053493</v>
       </c>
       <c r="H21" s="5">
-        <v>2053493</v>
-      </c>
-      <c r="I21" s="5">
         <v>2072388</v>
       </c>
+      <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>33</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="C22" s="5">
+        <v>1215503</v>
+      </c>
       <c r="D22" s="5">
-        <v>1215503</v>
+        <v>1228823</v>
       </c>
       <c r="E22" s="5">
-        <v>1228823</v>
+        <v>1242395</v>
       </c>
       <c r="F22" s="5">
-        <v>1242395</v>
+        <v>1255839</v>
       </c>
       <c r="G22" s="5">
-        <v>1255839</v>
+        <v>1269090</v>
       </c>
       <c r="H22" s="5">
-        <v>1269090</v>
-      </c>
-      <c r="I22" s="5">
         <v>1284552</v>
       </c>
+      <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>34</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="C23" s="5">
+        <v>1838110</v>
+      </c>
       <c r="D23" s="5">
-        <v>1838110</v>
+        <v>1846101</v>
       </c>
       <c r="E23" s="5">
-        <v>1846101</v>
+        <v>1854128</v>
       </c>
       <c r="F23" s="5">
-        <v>1854128</v>
+        <v>1862184</v>
       </c>
       <c r="G23" s="5">
-        <v>1862184</v>
+        <v>1870240</v>
       </c>
       <c r="H23" s="5">
-        <v>1870240</v>
-      </c>
-      <c r="I23" s="5">
         <v>1875663</v>
       </c>
+      <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>35</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="C24" s="5">
+        <v>832217</v>
+      </c>
       <c r="D24" s="5">
-        <v>832217</v>
+        <v>839760</v>
       </c>
       <c r="E24" s="5">
-        <v>839760</v>
+        <v>847137</v>
       </c>
       <c r="F24" s="5">
-        <v>847137</v>
+        <v>854469</v>
       </c>
       <c r="G24" s="5">
-        <v>854469</v>
+        <v>861832</v>
       </c>
       <c r="H24" s="5">
-        <v>861832</v>
-      </c>
-      <c r="I24" s="5">
         <v>875216</v>
       </c>
+      <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>36</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="C25" s="5">
+        <v>1792452</v>
+      </c>
       <c r="D25" s="5">
-        <v>1792452</v>
+        <v>1788225</v>
       </c>
       <c r="E25" s="5">
-        <v>1788225</v>
+        <v>1784206</v>
       </c>
       <c r="F25" s="5">
-        <v>1784206</v>
+        <v>1780865</v>
       </c>
       <c r="G25" s="5">
-        <v>1780865</v>
+        <v>1780333</v>
       </c>
       <c r="H25" s="5">
-        <v>1780333</v>
-      </c>
-      <c r="I25" s="5">
         <v>1836268</v>
       </c>
+      <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>37</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="C26" s="5">
+        <v>956809</v>
+      </c>
       <c r="D26" s="5">
-        <v>956809</v>
+        <v>965429</v>
       </c>
       <c r="E26" s="5">
-        <v>965429</v>
+        <v>974666</v>
       </c>
       <c r="F26" s="5">
-        <v>974666</v>
+        <v>984527</v>
       </c>
       <c r="G26" s="5">
-        <v>984527</v>
+        <v>993920</v>
       </c>
       <c r="H26" s="5">
-        <v>993920</v>
-      </c>
-      <c r="I26" s="5">
         <v>1007570</v>
       </c>
+      <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>38</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="C27" s="5">
+        <v>3570832</v>
+      </c>
       <c r="D27" s="5">
-        <v>3570832</v>
+        <v>3603699</v>
       </c>
       <c r="E27" s="5">
-        <v>3603699</v>
+        <v>3631279</v>
       </c>
       <c r="F27" s="5">
-        <v>3631279</v>
+        <v>3645796</v>
       </c>
       <c r="G27" s="5">
-        <v>3645796</v>
+        <v>3664944</v>
       </c>
       <c r="H27" s="5">
-        <v>3664944</v>
-      </c>
-      <c r="I27" s="5">
         <v>3716428</v>
       </c>
+      <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>40</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="C28" s="5">
+        <v>3203112</v>
+      </c>
       <c r="D28" s="5">
-        <v>3203112</v>
+        <v>3246691</v>
       </c>
       <c r="E28" s="5">
-        <v>3246691</v>
+        <v>3291369</v>
       </c>
       <c r="F28" s="5">
-        <v>3291369</v>
+        <v>3337207</v>
       </c>
       <c r="G28" s="5">
-        <v>3337207</v>
+        <v>3365198</v>
       </c>
       <c r="H28" s="5">
-        <v>3365198</v>
-      </c>
-      <c r="I28" s="5">
         <v>3409812</v>
       </c>
+      <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>42</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="C29" s="5">
+        <v>1266723</v>
+      </c>
       <c r="D29" s="5">
-        <v>1266723</v>
+        <v>1274239</v>
       </c>
       <c r="E29" s="5">
-        <v>1274239</v>
+        <v>1280513</v>
       </c>
       <c r="F29" s="5">
-        <v>1280513</v>
+        <v>1290263</v>
       </c>
       <c r="G29" s="5">
-        <v>1290263</v>
+        <v>1296622</v>
       </c>
       <c r="H29" s="5">
-        <v>1296622</v>
-      </c>
-      <c r="I29" s="5">
         <v>1314056</v>
       </c>
+      <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>44</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>39</v>
       </c>
+      <c r="C30" s="5">
+        <v>880639</v>
+      </c>
       <c r="D30" s="5">
-        <v>880639</v>
+        <v>885725</v>
       </c>
       <c r="E30" s="5">
-        <v>885725</v>
+        <v>891138</v>
       </c>
       <c r="F30" s="5">
-        <v>891138</v>
+        <v>896601</v>
       </c>
       <c r="G30" s="5">
-        <v>896601</v>
+        <v>901984</v>
       </c>
       <c r="H30" s="5">
-        <v>901984</v>
-      </c>
-      <c r="I30" s="5">
         <v>910655</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>45</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="C31" s="5">
+        <v>621598</v>
+      </c>
       <c r="D31" s="5">
-        <v>621598</v>
+        <v>625372</v>
       </c>
       <c r="E31" s="5">
-        <v>625372</v>
+        <v>629734</v>
       </c>
       <c r="F31" s="5">
-        <v>629734</v>
+        <v>633440</v>
       </c>
       <c r="G31" s="5">
-        <v>633440</v>
+        <v>637386</v>
       </c>
       <c r="H31" s="5">
-        <v>637386</v>
-      </c>
-      <c r="I31" s="5">
         <v>647790</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>46</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="C32" s="5">
+        <v>1117985</v>
+      </c>
       <c r="D32" s="5">
-        <v>1117985</v>
+        <v>1123357</v>
       </c>
       <c r="E32" s="5">
-        <v>1123357</v>
+        <v>1125400</v>
       </c>
       <c r="F32" s="5">
-        <v>1125400</v>
+        <v>1129505</v>
       </c>
       <c r="G32" s="5">
-        <v>1129505</v>
+        <v>1133592</v>
       </c>
       <c r="H32" s="5">
-        <v>1133592</v>
-      </c>
-      <c r="I32" s="5">
         <v>1153795</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>48</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="C33" s="5">
+        <v>1080286</v>
+      </c>
       <c r="D33" s="5">
-        <v>1080286</v>
+        <v>1097775</v>
       </c>
       <c r="E33" s="5">
-        <v>1097775</v>
+        <v>1114366</v>
       </c>
       <c r="F33" s="5">
-        <v>1114366</v>
+        <v>1141125</v>
       </c>
       <c r="G33" s="5">
-        <v>1141125</v>
+        <v>1169480</v>
       </c>
       <c r="H33" s="5">
-        <v>1169480</v>
-      </c>
-      <c r="I33" s="5">
         <v>1195488</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>49</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>43</v>
       </c>
+      <c r="C34" s="5">
+        <v>1475750</v>
+      </c>
       <c r="D34" s="5">
-        <v>1475750</v>
+        <v>1483288</v>
       </c>
       <c r="E34" s="5">
-        <v>1483288</v>
+        <v>1490764</v>
       </c>
       <c r="F34" s="5">
-        <v>1490764</v>
+        <v>1497479</v>
       </c>
       <c r="G34" s="5">
-        <v>1497479</v>
+        <v>1505042</v>
       </c>
       <c r="H34" s="5">
-        <v>1505042</v>
-      </c>
-      <c r="I34" s="5">
         <v>1518477</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>51</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>44</v>
       </c>
+      <c r="C35" s="5">
+        <v>1227463</v>
+      </c>
       <c r="D35" s="5">
-        <v>1227463</v>
+        <v>1228938</v>
       </c>
       <c r="E35" s="5">
-        <v>1228938</v>
+        <v>1230500</v>
       </c>
       <c r="F35" s="5">
-        <v>1230500</v>
+        <v>1231893</v>
       </c>
       <c r="G35" s="5">
-        <v>1231893</v>
+        <v>1233396</v>
       </c>
       <c r="H35" s="5">
-        <v>1233396</v>
-      </c>
-      <c r="I35" s="5">
         <v>1244132</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>52</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>45</v>
       </c>
+      <c r="C36" s="5">
+        <v>1487684</v>
+      </c>
       <c r="D36" s="5">
-        <v>1487684</v>
+        <v>1487719</v>
       </c>
       <c r="E36" s="5">
-        <v>1487719</v>
+        <v>1487771</v>
       </c>
       <c r="F36" s="5">
-        <v>1487771</v>
+        <v>1487817</v>
       </c>
       <c r="G36" s="5">
-        <v>1487817</v>
+        <v>1487903</v>
       </c>
       <c r="H36" s="5">
-        <v>1487903</v>
-      </c>
-      <c r="I36" s="5">
         <v>1508322</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>54</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>46</v>
       </c>
+      <c r="C37" s="5">
+        <v>868149</v>
+      </c>
       <c r="D37" s="5">
-        <v>868149</v>
+        <v>870048</v>
       </c>
       <c r="E37" s="5">
-        <v>870048</v>
+        <v>871495</v>
       </c>
       <c r="F37" s="5">
-        <v>871495</v>
+        <v>873164</v>
       </c>
       <c r="G37" s="5">
-        <v>873164</v>
+        <v>874295</v>
       </c>
       <c r="H37" s="5">
-        <v>874295</v>
-      </c>
-      <c r="I37" s="5">
         <v>875535</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>56</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>47</v>
       </c>
+      <c r="C38" s="5">
+        <v>1207163</v>
+      </c>
       <c r="D38" s="5">
-        <v>1207163</v>
+        <v>1216289</v>
       </c>
       <c r="E38" s="5">
-        <v>1216289</v>
+        <v>1224485</v>
       </c>
       <c r="F38" s="5">
-        <v>1224485</v>
+        <v>1232823</v>
       </c>
       <c r="G38" s="5">
-        <v>1232823</v>
+        <v>1240436</v>
       </c>
       <c r="H38" s="5">
-        <v>1240436</v>
-      </c>
-      <c r="I38" s="5">
         <v>1248062</v>
       </c>
+      <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>58</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>48</v>
       </c>
+      <c r="C39" s="5">
+        <v>581497</v>
+      </c>
       <c r="D39" s="5">
-        <v>581497</v>
+        <v>585375</v>
       </c>
       <c r="E39" s="5">
-        <v>585375</v>
+        <v>588860</v>
       </c>
       <c r="F39" s="5">
-        <v>588860</v>
+        <v>591032</v>
       </c>
       <c r="G39" s="5">
-        <v>591032</v>
+        <v>593644</v>
       </c>
       <c r="H39" s="5">
-        <v>593644</v>
-      </c>
-      <c r="I39" s="5">
         <v>596049</v>
       </c>
+      <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>60</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="C40" s="5">
+        <v>1213562</v>
+      </c>
       <c r="D40" s="5">
-        <v>1213562</v>
+        <v>1220467</v>
       </c>
       <c r="E40" s="5">
-        <v>1220467</v>
+        <v>1227269</v>
       </c>
       <c r="F40" s="5">
-        <v>1227269</v>
+        <v>1232267</v>
       </c>
       <c r="G40" s="5">
-        <v>1232267</v>
+        <v>1239256</v>
       </c>
       <c r="H40" s="5">
-        <v>1239256</v>
-      </c>
-      <c r="I40" s="5">
         <v>1246306</v>
       </c>
+      <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>62</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="C41" s="5">
+        <v>507818</v>
+      </c>
       <c r="D41" s="5">
-        <v>507818</v>
+        <v>520100</v>
       </c>
       <c r="E41" s="5">
-        <v>520100</v>
+        <v>532358</v>
       </c>
       <c r="F41" s="5">
-        <v>532358</v>
+        <v>543400</v>
       </c>
       <c r="G41" s="5">
-        <v>543400</v>
+        <v>555645</v>
       </c>
       <c r="H41" s="5">
-        <v>555645</v>
-      </c>
-      <c r="I41" s="5">
         <v>568780</v>
       </c>
+      <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>64</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>6</v>
       </c>
+      <c r="C42" s="5">
+        <v>1447133</v>
+      </c>
       <c r="D42" s="5">
-        <v>1447133</v>
+        <v>1468934</v>
       </c>
       <c r="E42" s="5">
-        <v>1468934</v>
+        <v>1495700</v>
       </c>
       <c r="F42" s="5">
-        <v>1495700</v>
+        <v>1520155</v>
       </c>
       <c r="G42" s="5">
-        <v>1520155</v>
+        <v>1541829</v>
       </c>
       <c r="H42" s="5">
-        <v>1541829</v>
-      </c>
-      <c r="I42" s="5">
         <v>1569721</v>
       </c>
+      <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>66</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="C43" s="5">
+        <v>1836390</v>
+      </c>
       <c r="D43" s="5">
-        <v>1836390</v>
+        <v>1850314</v>
       </c>
       <c r="E43" s="5">
-        <v>1850314</v>
+        <v>1861518</v>
       </c>
       <c r="F43" s="5">
-        <v>1861518</v>
+        <v>1872574</v>
       </c>
       <c r="G43" s="5">
-        <v>1872574</v>
+        <v>1886937</v>
       </c>
       <c r="H43" s="5">
-        <v>1886937</v>
-      </c>
-      <c r="I43" s="5">
         <v>1908999</v>
       </c>
+      <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>67</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="C44" s="5">
+        <v>594431</v>
+      </c>
       <c r="D44" s="5">
-        <v>594431</v>
+        <v>604892</v>
       </c>
       <c r="E44" s="5">
-        <v>604892</v>
+        <v>615420</v>
       </c>
       <c r="F44" s="5">
-        <v>615420</v>
+        <v>625822</v>
       </c>
       <c r="G44" s="5">
-        <v>625822</v>
+        <v>637907</v>
       </c>
       <c r="H44" s="5">
-        <v>637907</v>
-      </c>
-      <c r="I44" s="5">
         <v>664416</v>
       </c>
+      <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44"/>
-    </row>
-    <row r="45" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>68</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>52</v>
       </c>
+      <c r="C45" s="5">
+        <v>1271315</v>
+      </c>
       <c r="D45" s="5">
-        <v>1271315</v>
+        <v>1281339</v>
       </c>
       <c r="E45" s="5">
-        <v>1281339</v>
+        <v>1291441</v>
       </c>
       <c r="F45" s="5">
-        <v>1291441</v>
+        <v>1299335</v>
       </c>
       <c r="G45" s="5">
-        <v>1299335</v>
+        <v>1309792</v>
       </c>
       <c r="H45" s="5">
-        <v>1309792</v>
-      </c>
-      <c r="I45" s="5">
         <v>1321839</v>
       </c>
+      <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
-    </row>
-    <row r="46" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>70</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="C46" s="5">
+        <v>962675</v>
+      </c>
       <c r="D46" s="5">
-        <v>962675</v>
+        <v>972610</v>
       </c>
       <c r="E46" s="5">
-        <v>972610</v>
+        <v>984910</v>
       </c>
       <c r="F46" s="5">
-        <v>984910</v>
+        <v>997766</v>
       </c>
       <c r="G46" s="5">
-        <v>997766</v>
+        <v>1011076</v>
       </c>
       <c r="H46" s="5">
-        <v>1011076</v>
-      </c>
-      <c r="I46" s="5">
         <v>1024285</v>
       </c>
+      <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46"/>
-    </row>
-    <row r="47" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>72</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>54</v>
       </c>
+      <c r="C47" s="5">
+        <v>1139654</v>
+      </c>
       <c r="D47" s="5">
-        <v>1139654</v>
+        <v>1151074</v>
       </c>
       <c r="E47" s="5">
-        <v>1151074</v>
+        <v>1160681</v>
       </c>
       <c r="F47" s="5">
-        <v>1160681</v>
+        <v>1171683</v>
       </c>
       <c r="G47" s="5">
-        <v>1171683</v>
+        <v>1178329</v>
       </c>
       <c r="H47" s="5">
-        <v>1178329</v>
-      </c>
-      <c r="I47" s="5">
         <v>1181907</v>
       </c>
+      <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
-    </row>
-    <row r="48" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>74</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>55</v>
       </c>
+      <c r="C48" s="5">
+        <v>2138788</v>
+      </c>
       <c r="D48" s="5">
-        <v>2138788</v>
+        <v>2227154</v>
       </c>
       <c r="E48" s="5">
-        <v>2227154</v>
+        <v>2345184</v>
       </c>
       <c r="F48" s="5">
-        <v>2345184</v>
+        <v>2456319</v>
       </c>
       <c r="G48" s="5">
-        <v>2456319</v>
+        <v>2580550</v>
       </c>
       <c r="H48" s="5">
-        <v>2580550</v>
-      </c>
-      <c r="I48" s="5">
         <v>2596785</v>
       </c>
+      <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
-    </row>
-    <row r="49" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>75</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>56</v>
       </c>
+      <c r="C49" s="5">
+        <v>2951368</v>
+      </c>
       <c r="D49" s="5">
-        <v>2951368</v>
+        <v>3004857</v>
       </c>
       <c r="E49" s="5">
-        <v>3004857</v>
+        <v>3055089</v>
       </c>
       <c r="F49" s="5">
-        <v>3055089</v>
+        <v>3113713</v>
       </c>
       <c r="G49" s="5">
-        <v>3113713</v>
+        <v>3177401</v>
       </c>
       <c r="H49" s="5">
-        <v>3177401</v>
-      </c>
-      <c r="I49" s="5">
         <v>3169103</v>
       </c>
+      <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
-    </row>
-    <row r="50" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>77</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>57</v>
       </c>
+      <c r="C50" s="5">
+        <v>1117607</v>
+      </c>
       <c r="D50" s="5">
-        <v>1117607</v>
+        <v>1127244</v>
       </c>
       <c r="E50" s="5">
-        <v>1127244</v>
+        <v>1138281</v>
       </c>
       <c r="F50" s="5">
-        <v>1138281</v>
+        <v>1152218</v>
       </c>
       <c r="G50" s="5">
-        <v>1152218</v>
+        <v>1167937</v>
       </c>
       <c r="H50" s="5">
-        <v>1167937</v>
-      </c>
-      <c r="I50" s="5">
         <v>1176079</v>
       </c>
+      <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50"/>
-    </row>
-    <row r="51" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>79</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>58</v>
       </c>
+      <c r="C51" s="5">
+        <v>8479141</v>
+      </c>
       <c r="D51" s="5">
-        <v>8479141</v>
+        <v>8649646</v>
       </c>
       <c r="E51" s="5">
-        <v>8649646</v>
+        <v>8843200</v>
       </c>
       <c r="F51" s="5">
-        <v>8843200</v>
+        <v>9038566</v>
       </c>
       <c r="G51" s="5">
-        <v>9038566</v>
+        <v>9227598</v>
       </c>
       <c r="H51" s="5">
-        <v>9227598</v>
-      </c>
-      <c r="I51" s="5">
         <v>9166840</v>
       </c>
+      <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51"/>
-    </row>
-    <row r="52" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>80</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="C52" s="5">
+        <v>1645215</v>
+      </c>
       <c r="D52" s="5">
-        <v>1645215</v>
+        <v>1662280</v>
       </c>
       <c r="E52" s="5">
-        <v>1662280</v>
+        <v>1678929</v>
       </c>
       <c r="F52" s="5">
-        <v>1678929</v>
+        <v>1695100</v>
       </c>
       <c r="G52" s="5">
-        <v>1695100</v>
+        <v>1713658</v>
       </c>
       <c r="H52" s="5">
-        <v>1713658</v>
-      </c>
-      <c r="I52" s="5">
         <v>1725752</v>
       </c>
+      <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52"/>
-    </row>
-    <row r="53" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>82</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
+      <c r="C53" s="5">
+        <v>1740138</v>
+      </c>
       <c r="D53" s="5">
-        <v>1740138</v>
+        <v>1751841</v>
       </c>
       <c r="E53" s="5">
-        <v>1751841</v>
+        <v>1759065</v>
       </c>
       <c r="F53" s="5">
-        <v>1759065</v>
+        <v>1766289</v>
       </c>
       <c r="G53" s="5">
-        <v>1766289</v>
+        <v>1772544</v>
       </c>
       <c r="H53" s="5">
-        <v>1772544</v>
-      </c>
-      <c r="I53" s="5">
         <v>1779416</v>
       </c>
+      <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
-    </row>
-    <row r="54" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>83</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>60</v>
       </c>
+      <c r="C54" s="5">
+        <v>1278619</v>
+      </c>
       <c r="D54" s="5">
-        <v>1278619</v>
+        <v>1282437</v>
       </c>
       <c r="E54" s="5">
-        <v>1282437</v>
+        <v>1285963</v>
       </c>
       <c r="F54" s="5">
-        <v>1285963</v>
+        <v>1289098</v>
       </c>
       <c r="G54" s="5">
-        <v>1289098</v>
+        <v>1292397</v>
       </c>
       <c r="H54" s="5">
-        <v>1292397</v>
-      </c>
-      <c r="I54" s="5">
         <v>1295705</v>
       </c>
+      <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54"/>
-    </row>
-    <row r="55" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>84</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
+      <c r="C55" s="5">
+        <v>1007560</v>
+      </c>
       <c r="D55" s="5">
-        <v>1007560</v>
+        <v>1008087</v>
       </c>
       <c r="E55" s="5">
-        <v>1008087</v>
+        <v>1008784</v>
       </c>
       <c r="F55" s="5">
-        <v>1008784</v>
+        <v>1009322</v>
       </c>
       <c r="G55" s="5">
-        <v>1009322</v>
+        <v>1009940</v>
       </c>
       <c r="H55" s="5">
-        <v>1009940</v>
-      </c>
-      <c r="I55" s="5">
         <v>1018635</v>
       </c>
+      <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55"/>
-    </row>
-    <row r="56" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>86</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="C56" s="5">
+        <v>1022856</v>
+      </c>
       <c r="D56" s="5">
-        <v>1022856</v>
+        <v>1022617</v>
       </c>
       <c r="E56" s="5">
-        <v>1022617</v>
+        <v>1022682</v>
       </c>
       <c r="F56" s="5">
-        <v>1022682</v>
+        <v>1022619</v>
       </c>
       <c r="G56" s="5">
-        <v>1022619</v>
+        <v>1022971</v>
       </c>
       <c r="H56" s="5">
-        <v>1022971</v>
-      </c>
-      <c r="I56" s="5">
         <v>1029015</v>
       </c>
+      <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56"/>
-    </row>
-    <row r="57" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>87</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>63</v>
       </c>
+      <c r="C57" s="5">
+        <v>1619011</v>
+      </c>
       <c r="D57" s="5">
-        <v>1619011</v>
+        <v>1612489</v>
       </c>
       <c r="E57" s="5">
-        <v>1612489</v>
+        <v>1606069</v>
       </c>
       <c r="F57" s="5">
-        <v>1606069</v>
+        <v>1598754</v>
       </c>
       <c r="G57" s="5">
-        <v>1598754</v>
+        <v>1600014</v>
       </c>
       <c r="H57" s="5">
-        <v>1600014</v>
-      </c>
-      <c r="I57" s="5">
         <v>1601306</v>
       </c>
+      <c r="O57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
+      <c r="R57" s="8"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-    </row>
-    <row r="58" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>89</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="C58" s="5">
+        <v>1976372</v>
+      </c>
       <c r="D58" s="5">
-        <v>1976372</v>
+        <v>1954177</v>
       </c>
       <c r="E58" s="5">
-        <v>1954177</v>
+        <v>1931000</v>
       </c>
       <c r="F58" s="5">
-        <v>1931000</v>
+        <v>1907401</v>
       </c>
       <c r="G58" s="5">
-        <v>1907401</v>
+        <v>1904532</v>
       </c>
       <c r="H58" s="5">
-        <v>1904532</v>
-      </c>
-      <c r="I58" s="5">
         <v>1909506</v>
       </c>
+      <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
+      <c r="R58" s="8"/>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-    </row>
-    <row r="59" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>91</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>64</v>
       </c>
+      <c r="C59" s="5">
+        <v>1708708</v>
+      </c>
       <c r="D59" s="5">
-        <v>1708708</v>
+        <v>1712891</v>
       </c>
       <c r="E59" s="5">
-        <v>1712891</v>
+        <v>1718130</v>
       </c>
       <c r="F59" s="5">
-        <v>1718130</v>
+        <v>1723695</v>
       </c>
       <c r="G59" s="5">
-        <v>1723695</v>
+        <v>1728869</v>
       </c>
       <c r="H59" s="5">
-        <v>1728869</v>
-      </c>
-      <c r="I59" s="5">
         <v>1752321</v>
       </c>
+      <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
+      <c r="R59" s="8"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-    </row>
-    <row r="60" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>92</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>65</v>
       </c>
+      <c r="C60" s="5">
+        <v>1214590</v>
+      </c>
       <c r="D60" s="5">
-        <v>1214590</v>
+        <v>1222417</v>
       </c>
       <c r="E60" s="5">
-        <v>1222417</v>
+        <v>1227744</v>
       </c>
       <c r="F60" s="5">
-        <v>1227744</v>
+        <v>1235954</v>
       </c>
       <c r="G60" s="5">
-        <v>1235954</v>
+        <v>1240731</v>
       </c>
       <c r="H60" s="5">
-        <v>1240731</v>
-      </c>
-      <c r="I60" s="5">
         <v>1246993</v>
       </c>
+      <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
+      <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-    </row>
-    <row r="61" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>93</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>66</v>
       </c>
+      <c r="C61" s="5">
+        <v>740059</v>
+      </c>
       <c r="D61" s="5">
-        <v>740059</v>
+        <v>737252</v>
       </c>
       <c r="E61" s="5">
-        <v>737252</v>
+        <v>734903</v>
       </c>
       <c r="F61" s="5">
-        <v>734903</v>
+        <v>732162</v>
       </c>
       <c r="G61" s="5">
-        <v>732162</v>
+        <v>729780</v>
       </c>
       <c r="H61" s="5">
-        <v>729780</v>
-      </c>
-      <c r="I61" s="5">
         <v>729888</v>
       </c>
+      <c r="O61" s="7"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
+      <c r="R61" s="8"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-    </row>
-    <row r="62" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>94</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>67</v>
       </c>
+      <c r="C62" s="5">
+        <v>1227576</v>
+      </c>
       <c r="D62" s="5">
-        <v>1227576</v>
+        <v>1218315</v>
       </c>
       <c r="E62" s="5">
-        <v>1218315</v>
+        <v>1208822</v>
       </c>
       <c r="F62" s="5">
-        <v>1208822</v>
+        <v>1199528</v>
       </c>
       <c r="G62" s="5">
-        <v>1199528</v>
+        <v>1195741</v>
       </c>
       <c r="H62" s="5">
-        <v>1195741</v>
-      </c>
-      <c r="I62" s="5">
         <v>1206819</v>
       </c>
+      <c r="O62" s="8"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
@@ -2551,33 +2546,33 @@
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-    </row>
-    <row r="63" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>95</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>68</v>
       </c>
+      <c r="C63" s="5">
+        <v>892802</v>
+      </c>
       <c r="D63" s="5">
-        <v>892802</v>
+        <v>897718</v>
       </c>
       <c r="E63" s="5">
-        <v>897718</v>
+        <v>902964</v>
       </c>
       <c r="F63" s="5">
-        <v>902964</v>
+        <v>908241</v>
       </c>
       <c r="G63" s="5">
-        <v>908241</v>
+        <v>913481</v>
       </c>
       <c r="H63" s="5">
-        <v>913481</v>
-      </c>
-      <c r="I63" s="5">
         <v>918510</v>
       </c>
+      <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
@@ -2585,33 +2580,33 @@
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-    </row>
-    <row r="64" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>96</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>69</v>
       </c>
+      <c r="C64" s="5">
+        <v>1198120</v>
+      </c>
       <c r="D64" s="5">
-        <v>1198120</v>
+        <v>1196979</v>
       </c>
       <c r="E64" s="5">
-        <v>1196979</v>
+        <v>1195559</v>
       </c>
       <c r="F64" s="5">
-        <v>1195559</v>
+        <v>1194281</v>
       </c>
       <c r="G64" s="5">
-        <v>1194281</v>
+        <v>1193894</v>
       </c>
       <c r="H64" s="5">
-        <v>1193894</v>
-      </c>
-      <c r="I64" s="5">
         <v>1208752</v>
       </c>
+      <c r="O64" s="8"/>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
@@ -2619,16 +2614,15 @@
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-    </row>
-    <row r="65" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+      <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
@@ -2636,16 +2630,15 @@
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-    </row>
-    <row r="66" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
+      <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
@@ -2653,16 +2646,15 @@
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-    </row>
-    <row r="67" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
@@ -2670,16 +2662,15 @@
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-    </row>
-    <row r="68" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+      <c r="O68" s="8"/>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
@@ -2687,16 +2678,15 @@
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-    </row>
-    <row r="69" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
@@ -2704,16 +2694,15 @@
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
       <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-    </row>
-    <row r="70" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="O70" s="8"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
@@ -2721,16 +2710,15 @@
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
       <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-    </row>
-    <row r="71" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="O71" s="8"/>
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
@@ -2738,17 +2726,16 @@
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
       <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-    </row>
-    <row r="72" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -2763,17 +2750,16 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-    </row>
-    <row r="73" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -2788,17 +2774,16 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-    </row>
-    <row r="74" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -2813,17 +2798,16 @@
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-    </row>
-    <row r="75" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -2838,17 +2822,16 @@
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-    </row>
-    <row r="76" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -2863,17 +2846,16 @@
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-    </row>
-    <row r="77" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -2888,17 +2870,16 @@
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-    </row>
-    <row r="78" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -2913,17 +2894,16 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-    </row>
-    <row r="79" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -2938,17 +2918,16 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-    </row>
-    <row r="80" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -2963,17 +2942,16 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-    </row>
-    <row r="81" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="8"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -2988,17 +2966,16 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
       <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-    </row>
-    <row r="82" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -3013,17 +2990,16 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
-    </row>
-    <row r="83" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -3038,17 +3014,16 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
       <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
-    </row>
-    <row r="84" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -3063,17 +3038,16 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-    </row>
-    <row r="85" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -3088,7 +3062,6 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
